--- a/CFHA/sizing-analysis/Draft-Sizing-Table.xlsx
+++ b/CFHA/sizing-analysis/Draft-Sizing-Table.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18384" windowHeight="6120" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18384" windowHeight="6120" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="HTAP_OUTPUT" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="HTAP_OUTPUT" sheetId="1" r:id="rId1"/>
     <sheet name="Constants" sheetId="3" state="hidden" r:id="rId2"/>
     <sheet name="Heating &amp; Cooling System Sizes" sheetId="2" r:id="rId3"/>
   </sheets>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="114">
   <si>
     <t>CZ</t>
   </si>
@@ -53,12 +53,6 @@
     <t>RC_HL_Watts_Low_ROUND</t>
   </si>
   <si>
-    <t>RC_HL_Watts_Mean_Round</t>
-  </si>
-  <si>
-    <t>RC_HL_Watts_High_Round</t>
-  </si>
-  <si>
     <t>CoolingDesignLoads (T)</t>
   </si>
   <si>
@@ -251,15 +245,9 @@
     <t>Low</t>
   </si>
   <si>
-    <t>Average</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
-    <t>kW</t>
-  </si>
-  <si>
     <t xml:space="preserve">1 W = </t>
   </si>
   <si>
@@ -297,12 +285,6 @@
   </si>
   <si>
     <t>Electric baseboard</t>
-  </si>
-  <si>
-    <t>Heating Load: Original Houses</t>
-  </si>
-  <si>
-    <t>Heating Load: Renovated houses</t>
   </si>
   <si>
     <t>Electric Baseboard</t>
@@ -340,6 +322,57 @@
   </si>
   <si>
     <t>In the absense of heat loss calculations the contractor must use another means for estimating system size, such as referring to the nameplate capacity of existing equipment</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Design Temp</t>
+  </si>
+  <si>
+    <t>Avg. new_low_w</t>
+  </si>
+  <si>
+    <t>Avg. RC.HLwatts.mean</t>
+  </si>
+  <si>
+    <t>Avg. OG.HLwatts.mean</t>
+  </si>
+  <si>
+    <t>Avg. new_high_w</t>
+  </si>
+  <si>
+    <t>BRITISH COLUMBIA</t>
+  </si>
+  <si>
+    <t>ONTARIO</t>
+  </si>
+  <si>
+    <t>NOVA SCOTIA</t>
+  </si>
+  <si>
+    <t>NEW BRUNSWICK</t>
+  </si>
+  <si>
+    <t>QUEBEC</t>
+  </si>
+  <si>
+    <t>ALBERTA</t>
+  </si>
+  <si>
+    <t>NEWFOUNDLAND AND LABRADOR</t>
+  </si>
+  <si>
+    <t>SASKATCHEWAN</t>
+  </si>
+  <si>
+    <t>MANITOBA</t>
+  </si>
+  <si>
+    <t>NORTHWEST TERRITORIES</t>
+  </si>
+  <si>
+    <t>Very</t>
   </si>
 </sst>
 </file>
@@ -347,7 +380,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -495,7 +528,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -528,9 +561,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -539,72 +569,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3333CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="8" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF009900"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <b/>
@@ -948,15 +921,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -978,941 +951,2055 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" t="s">
+        <v>98</v>
+      </c>
+      <c r="T1" t="s">
+        <v>99</v>
+      </c>
+      <c r="U1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V1" t="s">
+        <v>101</v>
+      </c>
+      <c r="W1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" s="1">
+        <f>IF(DisplayUnits="kW",
+(INT(T2/1000)+1)*1000,
+(INT(T2*ConvW2BTU/5000)+1)*5000)</f>
         <v>5000</v>
       </c>
       <c r="E2" s="1">
-        <v>7800</v>
+        <f>IF(DisplayUnits="kW",
+(INT(U2/1000)+1)*1000,
+(INT(U2*ConvW2BTU/5000)+1)*5000)</f>
+        <v>20000</v>
       </c>
       <c r="F2" s="1">
-        <v>12700</v>
+        <f>IF(DisplayUnits="kW",
+(INT(V2/1000)+1)*1000,
+(INT(V2*ConvW2BTU/5000)+1)*5000)</f>
+        <v>35000</v>
       </c>
       <c r="G2" s="1">
-        <v>1900</v>
-      </c>
-      <c r="H2" s="1">
-        <v>5300</v>
-      </c>
-      <c r="I2" s="1">
-        <v>12000</v>
-      </c>
+        <f>IF(DisplayUnits="kW",
+(INT(W2/1000)+1)*1000,
+(INT(W2*ConvW2BTU/5000)+1)*5000)</f>
+        <v>45000</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
       <c r="J2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="O2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>103</v>
+      </c>
+      <c r="R2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2">
+        <v>-4</v>
+      </c>
+      <c r="T2" s="1">
+        <v>1281</v>
+      </c>
+      <c r="U2" s="1">
+        <v>4754</v>
+      </c>
+      <c r="V2" s="1">
+        <v>9409</v>
+      </c>
+      <c r="W2" s="1">
+        <v>12837</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1">
-        <v>5500</v>
+        <f>IF(DisplayUnits="kW",
+(INT(T3/1000)+1)*1000,
+(INT(T3*ConvW2BTU/5000)+1)*5000)</f>
+        <v>10000</v>
       </c>
       <c r="E3" s="1">
-        <v>8700</v>
+        <f>IF(DisplayUnits="kW",
+(INT(U3/1000)+1)*1000,
+(INT(U3*ConvW2BTU/5000)+1)*5000)</f>
+        <v>20000</v>
       </c>
       <c r="F3" s="1">
-        <v>14100</v>
+        <f>IF(DisplayUnits="kW",
+(INT(V3/1000)+1)*1000,
+(INT(V3*ConvW2BTU/5000)+1)*5000)</f>
+        <v>40000</v>
       </c>
       <c r="G3" s="1">
-        <v>2400</v>
-      </c>
-      <c r="H3" s="1">
-        <v>6000</v>
-      </c>
-      <c r="I3" s="1">
-        <v>12800</v>
-      </c>
+        <f>IF(DisplayUnits="kW",
+(INT(W3/1000)+1)*1000,
+(INT(W3*ConvW2BTU/5000)+1)*5000)</f>
+        <v>50000</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
       <c r="J3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="O3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>103</v>
+      </c>
+      <c r="R3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3">
+        <v>-7</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1875</v>
+      </c>
+      <c r="U3" s="1">
+        <v>5355</v>
+      </c>
+      <c r="V3" s="1">
+        <v>10404</v>
+      </c>
+      <c r="W3" s="1">
+        <v>14294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
       <c r="D4" s="1">
-        <v>5500</v>
+        <f>IF(DisplayUnits="kW",
+(INT(T4/1000)+1)*1000,
+(INT(T4*ConvW2BTU/5000)+1)*5000)</f>
+        <v>10000</v>
       </c>
       <c r="E4" s="1">
-        <v>8700</v>
+        <f>IF(DisplayUnits="kW",
+(INT(U4/1000)+1)*1000,
+(INT(U4*ConvW2BTU/5000)+1)*5000)</f>
+        <v>20000</v>
       </c>
       <c r="F4" s="1">
-        <v>14100</v>
+        <f>IF(DisplayUnits="kW",
+(INT(V4/1000)+1)*1000,
+(INT(V4*ConvW2BTU/5000)+1)*5000)</f>
+        <v>40000</v>
       </c>
       <c r="G4" s="1">
-        <v>2400</v>
-      </c>
-      <c r="H4" s="1">
-        <v>6000</v>
-      </c>
-      <c r="I4" s="1">
-        <v>12800</v>
-      </c>
+        <f>IF(DisplayUnits="kW",
+(INT(W4/1000)+1)*1000,
+(INT(W4*ConvW2BTU/5000)+1)*5000)</f>
+        <v>50000</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
       <c r="J4" s="3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="O4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>103</v>
+      </c>
+      <c r="R4" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4">
+        <v>-7</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1875</v>
+      </c>
+      <c r="U4" s="1">
+        <v>5355</v>
+      </c>
+      <c r="V4" s="1">
+        <v>10404</v>
+      </c>
+      <c r="W4" s="1">
+        <v>14294</v>
+      </c>
+      <c r="X4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>7600</v>
+        <f>IF(DisplayUnits="kW",
+(INT(T5/1000)+1)*1000,
+(INT(T5*ConvW2BTU/5000)+1)*5000)</f>
+        <v>15000</v>
       </c>
       <c r="E5" s="1">
-        <v>11100</v>
+        <f>IF(DisplayUnits="kW",
+(INT(U5/1000)+1)*1000,
+(INT(U5*ConvW2BTU/5000)+1)*5000)</f>
+        <v>30000</v>
       </c>
       <c r="F5" s="1">
-        <v>20200</v>
+        <f>IF(DisplayUnits="kW",
+(INT(V5/1000)+1)*1000,
+(INT(V5*ConvW2BTU/5000)+1)*5000)</f>
+        <v>50000</v>
       </c>
       <c r="G5" s="1">
-        <v>5000</v>
-      </c>
-      <c r="H5" s="1">
-        <v>9500</v>
-      </c>
-      <c r="I5" s="1">
-        <v>20000</v>
-      </c>
+        <f>IF(DisplayUnits="kW",
+(INT(W5/1000)+1)*1000,
+(INT(W5*ConvW2BTU/5000)+1)*5000)</f>
+        <v>75000</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
       <c r="J5" s="3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="O5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>104</v>
+      </c>
+      <c r="R5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S5">
+        <v>-20</v>
+      </c>
+      <c r="T5" s="1">
+        <v>3161</v>
+      </c>
+      <c r="U5" s="1">
+        <v>8551</v>
+      </c>
+      <c r="V5" s="1">
+        <v>13317</v>
+      </c>
+      <c r="W5" s="1">
+        <v>20612</v>
+      </c>
+      <c r="X5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1">
-        <v>7600</v>
+        <f>IF(DisplayUnits="kW",
+(INT(T6/1000)+1)*1000,
+(INT(T6*ConvW2BTU/5000)+1)*5000)</f>
+        <v>15000</v>
       </c>
       <c r="E6" s="1">
-        <v>11100</v>
+        <f>IF(DisplayUnits="kW",
+(INT(U6/1000)+1)*1000,
+(INT(U6*ConvW2BTU/5000)+1)*5000)</f>
+        <v>30000</v>
       </c>
       <c r="F6" s="1">
-        <v>20200</v>
+        <f>IF(DisplayUnits="kW",
+(INT(V6/1000)+1)*1000,
+(INT(V6*ConvW2BTU/5000)+1)*5000)</f>
+        <v>50000</v>
       </c>
       <c r="G6" s="1">
-        <v>5000</v>
-      </c>
-      <c r="H6" s="1">
-        <v>9500</v>
-      </c>
-      <c r="I6" s="1">
-        <v>20000</v>
-      </c>
+        <f>IF(DisplayUnits="kW",
+(INT(W6/1000)+1)*1000,
+(INT(W6*ConvW2BTU/5000)+1)*5000)</f>
+        <v>75000</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
       <c r="J6" s="3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="O6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S6">
+        <v>-20</v>
+      </c>
+      <c r="T6" s="1">
+        <v>3161</v>
+      </c>
+      <c r="U6" s="1">
+        <v>8551</v>
+      </c>
+      <c r="V6" s="1">
+        <v>13317</v>
+      </c>
+      <c r="W6" s="1">
+        <v>20612</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
       <c r="D7" s="1">
-        <v>6900</v>
+        <f>IF(DisplayUnits="kW",
+(INT(T7/1000)+1)*1000,
+(INT(T7*ConvW2BTU/5000)+1)*5000)</f>
+        <v>10000</v>
       </c>
       <c r="E7" s="1">
-        <v>10900</v>
+        <f>IF(DisplayUnits="kW",
+(INT(U7/1000)+1)*1000,
+(INT(U7*ConvW2BTU/5000)+1)*5000)</f>
+        <v>20000</v>
       </c>
       <c r="F7" s="1">
-        <v>20000</v>
+        <f>IF(DisplayUnits="kW",
+(INT(V7/1000)+1)*1000,
+(INT(V7*ConvW2BTU/5000)+1)*5000)</f>
+        <v>45000</v>
       </c>
       <c r="G7" s="1">
-        <v>2500</v>
-      </c>
-      <c r="H7" s="1">
-        <v>5800</v>
-      </c>
-      <c r="I7" s="1">
-        <v>10000</v>
-      </c>
+        <f>IF(DisplayUnits="kW",
+(INT(W7/1000)+1)*1000,
+(INT(W7*ConvW2BTU/5000)+1)*5000)</f>
+        <v>65000</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
       <c r="J7" s="3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="O7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>105</v>
+      </c>
+      <c r="R7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S7">
+        <v>-16</v>
+      </c>
+      <c r="T7" s="1">
+        <v>2286</v>
+      </c>
+      <c r="U7" s="1">
+        <v>5230</v>
+      </c>
+      <c r="V7" s="1">
+        <v>13070</v>
+      </c>
+      <c r="W7" s="1">
+        <v>18668</v>
+      </c>
+      <c r="X7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1">
-        <v>7600</v>
+        <f>IF(DisplayUnits="kW",
+(INT(T8/1000)+1)*1000,
+(INT(T8*ConvW2BTU/5000)+1)*5000)</f>
+        <v>15000</v>
       </c>
       <c r="E8" s="1">
-        <v>12000</v>
+        <f>IF(DisplayUnits="kW",
+(INT(U8/1000)+1)*1000,
+(INT(U8*ConvW2BTU/5000)+1)*5000)</f>
+        <v>25000</v>
       </c>
       <c r="F8" s="1">
-        <v>22100</v>
+        <f>IF(DisplayUnits="kW",
+(INT(V8/1000)+1)*1000,
+(INT(V8*ConvW2BTU/5000)+1)*5000)</f>
+        <v>50000</v>
       </c>
       <c r="G8" s="1">
-        <v>3400</v>
-      </c>
-      <c r="H8" s="1">
-        <v>6800</v>
-      </c>
-      <c r="I8" s="1">
-        <v>11300</v>
-      </c>
+        <f>IF(DisplayUnits="kW",
+(INT(W8/1000)+1)*1000,
+(INT(W8*ConvW2BTU/5000)+1)*5000)</f>
+        <v>75000</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
       <c r="J8" s="3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="O8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>105</v>
+      </c>
+      <c r="R8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S8">
+        <v>-20</v>
+      </c>
+      <c r="T8" s="1">
+        <v>3161</v>
+      </c>
+      <c r="U8" s="1">
+        <v>6147</v>
+      </c>
+      <c r="V8" s="1">
+        <v>14356</v>
+      </c>
+      <c r="W8" s="1">
+        <v>20612</v>
+      </c>
+      <c r="X8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1">
-        <v>7900</v>
+        <f>IF(DisplayUnits="kW",
+(INT(T9/1000)+1)*1000,
+(INT(T9*ConvW2BTU/5000)+1)*5000)</f>
+        <v>15000</v>
       </c>
       <c r="E9" s="1">
-        <v>11600</v>
+        <f>IF(DisplayUnits="kW",
+(INT(U9/1000)+1)*1000,
+(INT(U9*ConvW2BTU/5000)+1)*5000)</f>
+        <v>35000</v>
       </c>
       <c r="F9" s="1">
-        <v>21100</v>
+        <f>IF(DisplayUnits="kW",
+(INT(V9/1000)+1)*1000,
+(INT(V9*ConvW2BTU/5000)+1)*5000)</f>
+        <v>50000</v>
       </c>
       <c r="G9" s="1">
-        <v>5400</v>
-      </c>
-      <c r="H9" s="1">
-        <v>9900</v>
-      </c>
-      <c r="I9" s="1">
-        <v>20300</v>
-      </c>
+        <f>IF(DisplayUnits="kW",
+(INT(W9/1000)+1)*1000,
+(INT(W9*ConvW2BTU/5000)+1)*5000)</f>
+        <v>75000</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
       <c r="J9" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="O9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>104</v>
+      </c>
+      <c r="R9" t="s">
+        <v>25</v>
+      </c>
+      <c r="S9">
+        <v>-22</v>
+      </c>
+      <c r="T9" s="1">
+        <v>3599</v>
+      </c>
+      <c r="U9" s="1">
+        <v>8933</v>
+      </c>
+      <c r="V9" s="1">
+        <v>13901</v>
+      </c>
+      <c r="W9" s="1">
+        <v>21584</v>
+      </c>
+      <c r="X9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1">
-        <v>7900</v>
+        <f>IF(DisplayUnits="kW",
+(INT(T10/1000)+1)*1000,
+(INT(T10*ConvW2BTU/5000)+1)*5000)</f>
+        <v>15000</v>
       </c>
       <c r="E10" s="1">
-        <v>11600</v>
+        <f>IF(DisplayUnits="kW",
+(INT(U10/1000)+1)*1000,
+(INT(U10*ConvW2BTU/5000)+1)*5000)</f>
+        <v>35000</v>
       </c>
       <c r="F10" s="1">
-        <v>21100</v>
+        <f>IF(DisplayUnits="kW",
+(INT(V10/1000)+1)*1000,
+(INT(V10*ConvW2BTU/5000)+1)*5000)</f>
+        <v>50000</v>
       </c>
       <c r="G10" s="1">
-        <v>5400</v>
-      </c>
-      <c r="H10" s="1">
-        <v>9900</v>
-      </c>
-      <c r="I10" s="1">
-        <v>20300</v>
-      </c>
+        <f>IF(DisplayUnits="kW",
+(INT(W10/1000)+1)*1000,
+(INT(W10*ConvW2BTU/5000)+1)*5000)</f>
+        <v>75000</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
       <c r="J10" s="3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="O10" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>104</v>
+      </c>
+      <c r="R10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S10">
+        <v>-22</v>
+      </c>
+      <c r="T10" s="1">
+        <v>3599</v>
+      </c>
+      <c r="U10" s="1">
+        <v>8933</v>
+      </c>
+      <c r="V10" s="1">
+        <v>13901</v>
+      </c>
+      <c r="W10" s="1">
+        <v>21584</v>
+      </c>
+      <c r="X10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1">
-        <v>8100</v>
+        <f>IF(DisplayUnits="kW",
+(INT(T11/1000)+1)*1000,
+(INT(T11*ConvW2BTU/5000)+1)*5000)</f>
+        <v>15000</v>
       </c>
       <c r="E11" s="1">
-        <v>10900</v>
+        <f>IF(DisplayUnits="kW",
+(INT(U11/1000)+1)*1000,
+(INT(U11*ConvW2BTU/5000)+1)*5000)</f>
+        <v>25000</v>
       </c>
       <c r="F11" s="1">
-        <v>20200</v>
+        <f>IF(DisplayUnits="kW",
+(INT(V11/1000)+1)*1000,
+(INT(V11*ConvW2BTU/5000)+1)*5000)</f>
+        <v>45000</v>
       </c>
       <c r="G11" s="1">
-        <v>4800</v>
-      </c>
-      <c r="H11" s="1">
-        <v>7600</v>
-      </c>
-      <c r="I11" s="1">
-        <v>13700</v>
-      </c>
+        <f>IF(DisplayUnits="kW",
+(INT(W11/1000)+1)*1000,
+(INT(W11*ConvW2BTU/5000)+1)*5000)</f>
+        <v>80000</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
       <c r="J11" s="3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="O11" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>106</v>
+      </c>
+      <c r="R11" t="s">
+        <v>29</v>
+      </c>
+      <c r="S11">
+        <v>-23</v>
+      </c>
+      <c r="T11" s="1">
+        <v>3818</v>
+      </c>
+      <c r="U11" s="1">
+        <v>6882</v>
+      </c>
+      <c r="V11" s="1">
+        <v>13065</v>
+      </c>
+      <c r="W11" s="1">
+        <v>22069</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1">
-        <v>8100</v>
+        <f>IF(DisplayUnits="kW",
+(INT(T12/1000)+1)*1000,
+(INT(T12*ConvW2BTU/5000)+1)*5000)</f>
+        <v>15000</v>
       </c>
       <c r="E12" s="1">
-        <v>10900</v>
+        <f>IF(DisplayUnits="kW",
+(INT(U12/1000)+1)*1000,
+(INT(U12*ConvW2BTU/5000)+1)*5000)</f>
+        <v>30000</v>
       </c>
       <c r="F12" s="1">
-        <v>18100</v>
+        <f>IF(DisplayUnits="kW",
+(INT(V12/1000)+1)*1000,
+(INT(V12*ConvW2BTU/5000)+1)*5000)</f>
+        <v>45000</v>
       </c>
       <c r="G12" s="1">
-        <v>6600</v>
-      </c>
-      <c r="H12" s="1">
-        <v>8800</v>
-      </c>
-      <c r="I12" s="1">
-        <v>16200</v>
-      </c>
+        <f>IF(DisplayUnits="kW",
+(INT(W12/1000)+1)*1000,
+(INT(W12*ConvW2BTU/5000)+1)*5000)</f>
+        <v>80000</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
       <c r="J12" s="3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="O12" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>107</v>
+      </c>
+      <c r="R12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S12">
+        <v>-23</v>
+      </c>
+      <c r="T12" s="1">
+        <v>3818</v>
+      </c>
+      <c r="U12" s="1">
+        <v>7961</v>
+      </c>
+      <c r="V12" s="1">
+        <v>13065</v>
+      </c>
+      <c r="W12" s="1">
+        <v>22069</v>
+      </c>
+      <c r="X12">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1">
-        <v>8200</v>
+        <f>IF(DisplayUnits="kW",
+(INT(T13/1000)+1)*1000,
+(INT(T13*ConvW2BTU/5000)+1)*5000)</f>
+        <v>15000</v>
       </c>
       <c r="E13" s="1">
-        <v>11100</v>
+        <f>IF(DisplayUnits="kW",
+(INT(U13/1000)+1)*1000,
+(INT(U13*ConvW2BTU/5000)+1)*5000)</f>
+        <v>25000</v>
       </c>
       <c r="F13" s="1">
-        <v>20600</v>
+        <f>IF(DisplayUnits="kW",
+(INT(V13/1000)+1)*1000,
+(INT(V13*ConvW2BTU/5000)+1)*5000)</f>
+        <v>50000</v>
       </c>
       <c r="G13" s="1">
-        <v>5000</v>
-      </c>
-      <c r="H13" s="1">
-        <v>7900</v>
-      </c>
-      <c r="I13" s="1">
-        <v>14000</v>
-      </c>
+        <f>IF(DisplayUnits="kW",
+(INT(W13/1000)+1)*1000,
+(INT(W13*ConvW2BTU/5000)+1)*5000)</f>
+        <v>80000</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
       <c r="J13" s="3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="O13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>106</v>
+      </c>
+      <c r="R13" t="s">
+        <v>33</v>
+      </c>
+      <c r="S13">
+        <v>-24</v>
+      </c>
+      <c r="T13" s="1">
+        <v>4036</v>
+      </c>
+      <c r="U13" s="1">
+        <v>7110</v>
+      </c>
+      <c r="V13" s="1">
+        <v>13327</v>
+      </c>
+      <c r="W13" s="1">
+        <v>22555</v>
+      </c>
+      <c r="X13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14" s="1">
-        <v>8400</v>
+        <f>IF(DisplayUnits="kW",
+(INT(T14/1000)+1)*1000,
+(INT(T14*ConvW2BTU/5000)+1)*5000)</f>
+        <v>15000</v>
       </c>
       <c r="E14" s="1">
-        <v>12300</v>
+        <f>IF(DisplayUnits="kW",
+(INT(U14/1000)+1)*1000,
+(INT(U14*ConvW2BTU/5000)+1)*5000)</f>
+        <v>35000</v>
       </c>
       <c r="F14" s="1">
-        <v>22500</v>
+        <f>IF(DisplayUnits="kW",
+(INT(V14/1000)+1)*1000,
+(INT(V14*ConvW2BTU/5000)+1)*5000)</f>
+        <v>55000</v>
       </c>
       <c r="G14" s="1">
-        <v>5900</v>
-      </c>
-      <c r="H14" s="1">
-        <v>10600</v>
-      </c>
-      <c r="I14" s="1">
-        <v>20900</v>
-      </c>
+        <f>IF(DisplayUnits="kW",
+(INT(W14/1000)+1)*1000,
+(INT(W14*ConvW2BTU/5000)+1)*5000)</f>
+        <v>80000</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
       <c r="J14" s="3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="O14" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>104</v>
+      </c>
+      <c r="R14" t="s">
+        <v>35</v>
+      </c>
+      <c r="S14">
+        <v>-25</v>
+      </c>
+      <c r="T14" s="1">
+        <v>4255</v>
+      </c>
+      <c r="U14" s="1">
+        <v>9507</v>
+      </c>
+      <c r="V14" s="1">
+        <v>14777</v>
+      </c>
+      <c r="W14" s="1">
+        <v>23041</v>
+      </c>
+      <c r="X14">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D15" s="1">
-        <v>8400</v>
+        <f>IF(DisplayUnits="kW",
+(INT(T15/1000)+1)*1000,
+(INT(T15*ConvW2BTU/5000)+1)*5000)</f>
+        <v>15000</v>
       </c>
       <c r="E15" s="1">
-        <v>12300</v>
+        <f>IF(DisplayUnits="kW",
+(INT(U15/1000)+1)*1000,
+(INT(U15*ConvW2BTU/5000)+1)*5000)</f>
+        <v>35000</v>
       </c>
       <c r="F15" s="1">
-        <v>22500</v>
+        <f>IF(DisplayUnits="kW",
+(INT(V15/1000)+1)*1000,
+(INT(V15*ConvW2BTU/5000)+1)*5000)</f>
+        <v>55000</v>
       </c>
       <c r="G15" s="1">
-        <v>5900</v>
-      </c>
-      <c r="H15" s="1">
-        <v>10600</v>
-      </c>
-      <c r="I15" s="1">
-        <v>20900</v>
-      </c>
+        <f>IF(DisplayUnits="kW",
+(INT(W15/1000)+1)*1000,
+(INT(W15*ConvW2BTU/5000)+1)*5000)</f>
+        <v>80000</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
       <c r="J15" s="3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="O15" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>104</v>
+      </c>
+      <c r="R15" t="s">
+        <v>35</v>
+      </c>
+      <c r="S15">
+        <v>-25</v>
+      </c>
+      <c r="T15" s="1">
+        <v>4255</v>
+      </c>
+      <c r="U15" s="1">
+        <v>9507</v>
+      </c>
+      <c r="V15" s="1">
+        <v>14777</v>
+      </c>
+      <c r="W15" s="1">
+        <v>23041</v>
+      </c>
+      <c r="X15">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D16" s="1">
-        <v>7500</v>
+        <f>IF(DisplayUnits="kW",
+(INT(T16/1000)+1)*1000,
+(INT(T16*ConvW2BTU/5000)+1)*5000)</f>
+        <v>20000</v>
       </c>
       <c r="E16" s="1">
-        <v>13800</v>
+        <f>IF(DisplayUnits="kW",
+(INT(U16/1000)+1)*1000,
+(INT(U16*ConvW2BTU/5000)+1)*5000)</f>
+        <v>40000</v>
       </c>
       <c r="F16" s="1">
-        <v>21800</v>
+        <f>IF(DisplayUnits="kW",
+(INT(V16/1000)+1)*1000,
+(INT(V16*ConvW2BTU/5000)+1)*5000)</f>
+        <v>60000</v>
       </c>
       <c r="G16" s="1">
-        <v>6200</v>
-      </c>
-      <c r="H16" s="1">
-        <v>11800</v>
-      </c>
-      <c r="I16" s="1">
-        <v>18800</v>
-      </c>
+        <f>IF(DisplayUnits="kW",
+(INT(W16/1000)+1)*1000,
+(INT(W16*ConvW2BTU/5000)+1)*5000)</f>
+        <v>90000</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
       <c r="J16" s="3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="O16" t="s">
+        <v>19</v>
+      </c>
+      <c r="P16" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>108</v>
+      </c>
+      <c r="R16" t="s">
+        <v>38</v>
+      </c>
+      <c r="S16">
+        <v>-31</v>
+      </c>
+      <c r="T16" s="1">
+        <v>5568</v>
+      </c>
+      <c r="U16" s="1">
+        <v>10654</v>
+      </c>
+      <c r="V16" s="1">
+        <v>16602</v>
+      </c>
+      <c r="W16" s="1">
+        <v>25957</v>
+      </c>
+      <c r="X16">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
         <v>41</v>
       </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" t="s">
-        <v>43</v>
-      </c>
       <c r="D17" s="1">
-        <v>6300</v>
+        <f>IF(DisplayUnits="kW",
+(INT(T17/1000)+1)*1000,
+(INT(T17*ConvW2BTU/5000)+1)*5000)</f>
+        <v>10000</v>
       </c>
       <c r="E17" s="1">
-        <v>9800</v>
+        <f>IF(DisplayUnits="kW",
+(INT(U17/1000)+1)*1000,
+(INT(U17*ConvW2BTU/5000)+1)*5000)</f>
+        <v>35000</v>
       </c>
       <c r="F17" s="1">
-        <v>15300</v>
+        <f>IF(DisplayUnits="kW",
+(INT(V17/1000)+1)*1000,
+(INT(V17*ConvW2BTU/5000)+1)*5000)</f>
+        <v>50000</v>
       </c>
       <c r="G17" s="1">
-        <v>5700</v>
-      </c>
-      <c r="H17" s="1">
-        <v>7700</v>
-      </c>
-      <c r="I17" s="1">
-        <v>13600</v>
-      </c>
+        <f>IF(DisplayUnits="kW",
+(INT(W17/1000)+1)*1000,
+(INT(W17*ConvW2BTU/5000)+1)*5000)</f>
+        <v>70000</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
       <c r="J17" s="3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="O17" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>109</v>
+      </c>
+      <c r="R17" t="s">
+        <v>41</v>
+      </c>
+      <c r="S17">
+        <v>-18</v>
+      </c>
+      <c r="T17" s="1">
+        <v>2724</v>
+      </c>
+      <c r="U17" s="1">
+        <v>9669</v>
+      </c>
+      <c r="V17" s="1">
+        <v>14015</v>
+      </c>
+      <c r="W17" s="1">
+        <v>19640</v>
+      </c>
+      <c r="X17">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D18" s="1">
-        <v>8400</v>
+        <f>IF(DisplayUnits="kW",
+(INT(T18/1000)+1)*1000,
+(INT(T18*ConvW2BTU/5000)+1)*5000)</f>
+        <v>15000</v>
       </c>
       <c r="E18" s="1">
-        <v>11300</v>
+        <f>IF(DisplayUnits="kW",
+(INT(U18/1000)+1)*1000,
+(INT(U18*ConvW2BTU/5000)+1)*5000)</f>
+        <v>30000</v>
       </c>
       <c r="F18" s="1">
-        <v>18800</v>
+        <f>IF(DisplayUnits="kW",
+(INT(V18/1000)+1)*1000,
+(INT(V18*ConvW2BTU/5000)+1)*5000)</f>
+        <v>50000</v>
       </c>
       <c r="G18" s="1">
-        <v>6900</v>
-      </c>
-      <c r="H18" s="1">
-        <v>9300</v>
-      </c>
-      <c r="I18" s="1">
-        <v>16700</v>
-      </c>
+        <f>IF(DisplayUnits="kW",
+(INT(W18/1000)+1)*1000,
+(INT(W18*ConvW2BTU/5000)+1)*5000)</f>
+        <v>80000</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
       <c r="J18" s="3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="O18" t="s">
+        <v>39</v>
+      </c>
+      <c r="P18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>107</v>
+      </c>
+      <c r="R18" t="s">
+        <v>43</v>
+      </c>
+      <c r="S18">
+        <v>-25</v>
+      </c>
+      <c r="T18" s="1">
+        <v>4255</v>
+      </c>
+      <c r="U18" s="1">
+        <v>8382</v>
+      </c>
+      <c r="V18" s="1">
+        <v>13590</v>
+      </c>
+      <c r="W18" s="1">
+        <v>23041</v>
+      </c>
+      <c r="X18">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D19" s="1">
-        <v>8900</v>
+        <f>IF(DisplayUnits="kW",
+(INT(T19/1000)+1)*1000,
+(INT(T19*ConvW2BTU/5000)+1)*5000)</f>
+        <v>20000</v>
       </c>
       <c r="E19" s="1">
-        <v>13000</v>
+        <f>IF(DisplayUnits="kW",
+(INT(U19/1000)+1)*1000,
+(INT(U19*ConvW2BTU/5000)+1)*5000)</f>
+        <v>35000</v>
       </c>
       <c r="F19" s="1">
-        <v>24000</v>
+        <f>IF(DisplayUnits="kW",
+(INT(V19/1000)+1)*1000,
+(INT(V19*ConvW2BTU/5000)+1)*5000)</f>
+        <v>55000</v>
       </c>
       <c r="G19" s="1">
-        <v>6500</v>
-      </c>
-      <c r="H19" s="1">
-        <v>11200</v>
-      </c>
-      <c r="I19" s="1">
-        <v>21500</v>
-      </c>
+        <f>IF(DisplayUnits="kW",
+(INT(W19/1000)+1)*1000,
+(INT(W19*ConvW2BTU/5000)+1)*5000)</f>
+        <v>85000</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
       <c r="J19" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="O19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P19" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>104</v>
+      </c>
+      <c r="R19" t="s">
+        <v>45</v>
+      </c>
+      <c r="S19">
+        <v>-28</v>
+      </c>
+      <c r="T19" s="1">
+        <v>4911</v>
+      </c>
+      <c r="U19" s="1">
+        <v>10081</v>
+      </c>
+      <c r="V19" s="1">
+        <v>15652</v>
+      </c>
+      <c r="W19" s="1">
+        <v>24499</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D20" s="1">
-        <v>7400</v>
+        <f>IF(DisplayUnits="kW",
+(INT(T20/1000)+1)*1000,
+(INT(T20*ConvW2BTU/5000)+1)*5000)</f>
+        <v>20000</v>
       </c>
       <c r="E20" s="1">
-        <v>13600</v>
+        <f>IF(DisplayUnits="kW",
+(INT(U20/1000)+1)*1000,
+(INT(U20*ConvW2BTU/5000)+1)*5000)</f>
+        <v>40000</v>
       </c>
       <c r="F20" s="1">
-        <v>21400</v>
+        <f>IF(DisplayUnits="kW",
+(INT(V20/1000)+1)*1000,
+(INT(V20*ConvW2BTU/5000)+1)*5000)</f>
+        <v>60000</v>
       </c>
       <c r="G20" s="1">
-        <v>6000</v>
-      </c>
-      <c r="H20" s="1">
-        <v>11600</v>
-      </c>
-      <c r="I20" s="1">
-        <v>18600</v>
-      </c>
+        <f>IF(DisplayUnits="kW",
+(INT(W20/1000)+1)*1000,
+(INT(W20*ConvW2BTU/5000)+1)*5000)</f>
+        <v>90000</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
       <c r="J20" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="O20" t="s">
+        <v>39</v>
+      </c>
+      <c r="P20" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>108</v>
+      </c>
+      <c r="R20" t="s">
+        <v>47</v>
+      </c>
+      <c r="S20">
+        <v>-30</v>
+      </c>
+      <c r="T20" s="1">
+        <v>5349</v>
+      </c>
+      <c r="U20" s="1">
+        <v>10463</v>
+      </c>
+      <c r="V20" s="1">
+        <v>16308</v>
+      </c>
+      <c r="W20" s="1">
+        <v>25471</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D21" s="1">
-        <v>7400</v>
+        <f>IF(DisplayUnits="kW",
+(INT(T21/1000)+1)*1000,
+(INT(T21*ConvW2BTU/5000)+1)*5000)</f>
+        <v>20000</v>
       </c>
       <c r="E21" s="1">
-        <v>13600</v>
+        <f>IF(DisplayUnits="kW",
+(INT(U21/1000)+1)*1000,
+(INT(U21*ConvW2BTU/5000)+1)*5000)</f>
+        <v>40000</v>
       </c>
       <c r="F21" s="1">
-        <v>21400</v>
+        <f>IF(DisplayUnits="kW",
+(INT(V21/1000)+1)*1000,
+(INT(V21*ConvW2BTU/5000)+1)*5000)</f>
+        <v>60000</v>
       </c>
       <c r="G21" s="1">
-        <v>6000</v>
-      </c>
-      <c r="H21" s="1">
-        <v>11600</v>
-      </c>
-      <c r="I21" s="1">
-        <v>18600</v>
-      </c>
+        <f>IF(DisplayUnits="kW",
+(INT(W21/1000)+1)*1000,
+(INT(W21*ConvW2BTU/5000)+1)*5000)</f>
+        <v>90000</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
       <c r="J21" s="3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="O21" t="s">
+        <v>39</v>
+      </c>
+      <c r="P21" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>108</v>
+      </c>
+      <c r="R21" t="s">
+        <v>47</v>
+      </c>
+      <c r="S21">
+        <v>-30</v>
+      </c>
+      <c r="T21" s="1">
+        <v>5349</v>
+      </c>
+      <c r="U21" s="1">
+        <v>10463</v>
+      </c>
+      <c r="V21" s="1">
+        <v>16308</v>
+      </c>
+      <c r="W21" s="1">
+        <v>25471</v>
+      </c>
+      <c r="X21">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D22" s="1">
-        <v>9400</v>
+        <f>IF(DisplayUnits="kW",
+(INT(T22/1000)+1)*1000,
+(INT(T22*ConvW2BTU/5000)+1)*5000)</f>
+        <v>20000</v>
       </c>
       <c r="E22" s="1">
-        <v>12600</v>
+        <f>IF(DisplayUnits="kW",
+(INT(U22/1000)+1)*1000,
+(INT(U22*ConvW2BTU/5000)+1)*5000)</f>
+        <v>35000</v>
       </c>
       <c r="F22" s="1">
-        <v>21100</v>
+        <f>IF(DisplayUnits="kW",
+(INT(V22/1000)+1)*1000,
+(INT(V22*ConvW2BTU/5000)+1)*5000)</f>
+        <v>55000</v>
       </c>
       <c r="G22" s="1">
-        <v>7900</v>
-      </c>
-      <c r="H22" s="1">
-        <v>10700</v>
-      </c>
-      <c r="I22" s="1">
-        <v>18200</v>
-      </c>
+        <f>IF(DisplayUnits="kW",
+(INT(W22/1000)+1)*1000,
+(INT(W22*ConvW2BTU/5000)+1)*5000)</f>
+        <v>90000</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
       <c r="J22" s="3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="O22" t="s">
+        <v>39</v>
+      </c>
+      <c r="P22" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>107</v>
+      </c>
+      <c r="R22" t="s">
+        <v>50</v>
+      </c>
+      <c r="S22">
+        <v>-31</v>
+      </c>
+      <c r="T22" s="1">
+        <v>5568</v>
+      </c>
+      <c r="U22" s="1">
+        <v>9645</v>
+      </c>
+      <c r="V22" s="1">
+        <v>15164</v>
+      </c>
+      <c r="W22" s="1">
+        <v>25957</v>
+      </c>
+      <c r="X22">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D23" s="1">
-        <v>9500</v>
+        <f>IF(DisplayUnits="kW",
+(INT(T23/1000)+1)*1000,
+(INT(T23*ConvW2BTU/5000)+1)*5000)</f>
+        <v>20000</v>
       </c>
       <c r="E23" s="1">
-        <v>12900</v>
+        <f>IF(DisplayUnits="kW",
+(INT(U23/1000)+1)*1000,
+(INT(U23*ConvW2BTU/5000)+1)*5000)</f>
+        <v>35000</v>
       </c>
       <c r="F23" s="1">
-        <v>24300</v>
+        <f>IF(DisplayUnits="kW",
+(INT(V23/1000)+1)*1000,
+(INT(V23*ConvW2BTU/5000)+1)*5000)</f>
+        <v>55000</v>
       </c>
       <c r="G23" s="1">
-        <v>8100</v>
-      </c>
-      <c r="H23" s="1">
-        <v>11000</v>
-      </c>
-      <c r="I23" s="1">
-        <v>21000</v>
-      </c>
+        <f>IF(DisplayUnits="kW",
+(INT(W23/1000)+1)*1000,
+(INT(W23*ConvW2BTU/5000)+1)*5000)</f>
+        <v>95000</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
       <c r="J23" s="3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="O23" t="s">
+        <v>39</v>
+      </c>
+      <c r="P23" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>110</v>
+      </c>
+      <c r="R23" t="s">
+        <v>52</v>
+      </c>
+      <c r="S23">
+        <v>-32</v>
+      </c>
+      <c r="T23" s="1">
+        <v>5786</v>
+      </c>
+      <c r="U23" s="1">
+        <v>9856</v>
+      </c>
+      <c r="V23" s="1">
+        <v>15427</v>
+      </c>
+      <c r="W23" s="1">
+        <v>26443</v>
+      </c>
+      <c r="X23">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D24" s="1">
-        <v>7100</v>
+        <f>IF(DisplayUnits="kW",
+(INT(T24/1000)+1)*1000,
+(INT(T24*ConvW2BTU/5000)+1)*5000)</f>
+        <v>25000</v>
       </c>
       <c r="E24" s="1">
-        <v>14200</v>
+        <f>IF(DisplayUnits="kW",
+(INT(U24/1000)+1)*1000,
+(INT(U24*ConvW2BTU/5000)+1)*5000)</f>
+        <v>40000</v>
       </c>
       <c r="F24" s="1">
-        <v>22000</v>
+        <f>IF(DisplayUnits="kW",
+(INT(V24/1000)+1)*1000,
+(INT(V24*ConvW2BTU/5000)+1)*5000)</f>
+        <v>60000</v>
       </c>
       <c r="G24" s="1">
-        <v>6100</v>
-      </c>
-      <c r="H24" s="1">
-        <v>12200</v>
-      </c>
-      <c r="I24" s="1">
-        <v>18800</v>
-      </c>
+        <f>IF(DisplayUnits="kW",
+(INT(W24/1000)+1)*1000,
+(INT(W24*ConvW2BTU/5000)+1)*5000)</f>
+        <v>95000</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
       <c r="J24" s="3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="O24" t="s">
+        <v>39</v>
+      </c>
+      <c r="P24" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>111</v>
+      </c>
+      <c r="R24" t="s">
+        <v>54</v>
+      </c>
+      <c r="S24">
+        <v>-33</v>
+      </c>
+      <c r="T24" s="1">
+        <v>6005</v>
+      </c>
+      <c r="U24" s="1">
+        <v>10959</v>
+      </c>
+      <c r="V24" s="1">
+        <v>17068</v>
+      </c>
+      <c r="W24" s="1">
+        <v>26929</v>
+      </c>
+      <c r="X24">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D25" s="1">
-        <v>7100</v>
+        <f>IF(DisplayUnits="kW",
+(INT(T25/1000)+1)*1000,
+(INT(T25*ConvW2BTU/5000)+1)*5000)</f>
+        <v>25000</v>
       </c>
       <c r="E25" s="1">
-        <v>14200</v>
+        <f>IF(DisplayUnits="kW",
+(INT(U25/1000)+1)*1000,
+(INT(U25*ConvW2BTU/5000)+1)*5000)</f>
+        <v>40000</v>
       </c>
       <c r="F25" s="1">
-        <v>22000</v>
+        <f>IF(DisplayUnits="kW",
+(INT(V25/1000)+1)*1000,
+(INT(V25*ConvW2BTU/5000)+1)*5000)</f>
+        <v>60000</v>
       </c>
       <c r="G25" s="1">
-        <v>6100</v>
-      </c>
-      <c r="H25" s="1">
-        <v>12200</v>
-      </c>
-      <c r="I25" s="1">
-        <v>18800</v>
-      </c>
+        <f>IF(DisplayUnits="kW",
+(INT(W25/1000)+1)*1000,
+(INT(W25*ConvW2BTU/5000)+1)*5000)</f>
+        <v>95000</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
       <c r="J25" s="3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="O25" t="s">
+        <v>39</v>
+      </c>
+      <c r="P25" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>111</v>
+      </c>
+      <c r="R25" t="s">
+        <v>56</v>
+      </c>
+      <c r="S25">
+        <v>-33</v>
+      </c>
+      <c r="T25" s="1">
+        <v>6005</v>
+      </c>
+      <c r="U25" s="1">
+        <v>10959</v>
+      </c>
+      <c r="V25" s="1">
+        <v>17068</v>
+      </c>
+      <c r="W25" s="1">
+        <v>26929</v>
+      </c>
+      <c r="X25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D26" s="1">
-        <v>9800</v>
+        <f>IF(DisplayUnits="kW",
+(INT(T26/1000)+1)*1000,
+(INT(T26*ConvW2BTU/5000)+1)*5000)</f>
+        <v>25000</v>
       </c>
       <c r="E26" s="1">
-        <v>14500</v>
+        <f>IF(DisplayUnits="kW",
+(INT(U26/1000)+1)*1000,
+(INT(U26*ConvW2BTU/5000)+1)*5000)</f>
+        <v>40000</v>
       </c>
       <c r="F26" s="1">
-        <v>26800</v>
+        <f>IF(DisplayUnits="kW",
+(INT(V26/1000)+1)*1000,
+(INT(V26*ConvW2BTU/5000)+1)*5000)</f>
+        <v>60000</v>
       </c>
       <c r="G26" s="1">
-        <v>7700</v>
-      </c>
-      <c r="H26" s="1">
-        <v>12500</v>
-      </c>
-      <c r="I26" s="1">
-        <v>22600</v>
-      </c>
+        <f>IF(DisplayUnits="kW",
+(INT(W26/1000)+1)*1000,
+(INT(W26*ConvW2BTU/5000)+1)*5000)</f>
+        <v>95000</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
       <c r="J26" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="O26" t="s">
+        <v>39</v>
+      </c>
+      <c r="P26" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>104</v>
+      </c>
+      <c r="R26" t="s">
+        <v>58</v>
+      </c>
+      <c r="S26">
+        <v>-34</v>
+      </c>
+      <c r="T26" s="1">
+        <v>6224</v>
+      </c>
+      <c r="U26" s="1">
+        <v>11228</v>
+      </c>
+      <c r="V26" s="1">
+        <v>17404</v>
+      </c>
+      <c r="W26" s="1">
+        <v>27415</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D27" s="1">
-        <v>8000</v>
+        <f>IF(DisplayUnits="kW",
+(INT(T27/1000)+1)*1000,
+(INT(T27*ConvW2BTU/5000)+1)*5000)</f>
+        <v>25000</v>
       </c>
       <c r="E27" s="1">
-        <v>14800</v>
+        <f>IF(DisplayUnits="kW",
+(INT(U27/1000)+1)*1000,
+(INT(U27*ConvW2BTU/5000)+1)*5000)</f>
+        <v>40000</v>
       </c>
       <c r="F27" s="1">
-        <v>23400</v>
+        <f>IF(DisplayUnits="kW",
+(INT(V27/1000)+1)*1000,
+(INT(V27*ConvW2BTU/5000)+1)*5000)</f>
+        <v>65000</v>
       </c>
       <c r="G27" s="1">
-        <v>7000</v>
-      </c>
-      <c r="H27" s="1">
-        <v>12700</v>
-      </c>
-      <c r="I27" s="1">
-        <v>19800</v>
-      </c>
+        <f>IF(DisplayUnits="kW",
+(INT(W27/1000)+1)*1000,
+(INT(W27*ConvW2BTU/5000)+1)*5000)</f>
+        <v>100000</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
       <c r="J27" s="3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="O27" t="s">
+        <v>39</v>
+      </c>
+      <c r="P27" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>108</v>
+      </c>
+      <c r="R27" t="s">
+        <v>60</v>
+      </c>
+      <c r="S27">
+        <v>-35</v>
+      </c>
+      <c r="T27" s="1">
+        <v>6443</v>
+      </c>
+      <c r="U27" s="1">
+        <v>11419</v>
+      </c>
+      <c r="V27" s="1">
+        <v>17776</v>
+      </c>
+      <c r="W27" s="1">
+        <v>27901</v>
+      </c>
+      <c r="X27">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D28" s="1">
-        <v>10000</v>
+        <f>IF(DisplayUnits="kW",
+(INT(T28/1000)+1)*1000,
+(INT(T28*ConvW2BTU/5000)+1)*5000)</f>
+        <v>25000</v>
       </c>
       <c r="E28" s="1">
-        <v>13500</v>
+        <f>IF(DisplayUnits="kW",
+(INT(U28/1000)+1)*1000,
+(INT(U28*ConvW2BTU/5000)+1)*5000)</f>
+        <v>40000</v>
       </c>
       <c r="F28" s="1">
-        <v>25700</v>
+        <f>IF(DisplayUnits="kW",
+(INT(V28/1000)+1)*1000,
+(INT(V28*ConvW2BTU/5000)+1)*5000)</f>
+        <v>60000</v>
       </c>
       <c r="G28" s="1">
-        <v>8600</v>
-      </c>
-      <c r="H28" s="1">
-        <v>11700</v>
-      </c>
-      <c r="I28" s="1">
-        <v>21700</v>
-      </c>
+        <f>IF(DisplayUnits="kW",
+(INT(W28/1000)+1)*1000,
+(INT(W28*ConvW2BTU/5000)+1)*5000)</f>
+        <v>100000</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
       <c r="J28" s="3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="O28" t="s">
+        <v>39</v>
+      </c>
+      <c r="P28" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>110</v>
+      </c>
+      <c r="R28" t="s">
+        <v>62</v>
+      </c>
+      <c r="S28">
+        <v>-35</v>
+      </c>
+      <c r="T28" s="1">
+        <v>6443</v>
+      </c>
+      <c r="U28" s="1">
+        <v>10487</v>
+      </c>
+      <c r="V28" s="1">
+        <v>16214</v>
+      </c>
+      <c r="W28" s="1">
+        <v>27901</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
         <v>65</v>
       </c>
-      <c r="B29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" t="s">
-        <v>67</v>
-      </c>
       <c r="D29" s="1">
-        <v>8000</v>
+        <f>IF(DisplayUnits="kW",
+(INT(T29/1000)+1)*1000,
+(INT(T29*ConvW2BTU/5000)+1)*5000)</f>
+        <v>20000</v>
       </c>
       <c r="E29" s="1">
-        <v>12600</v>
+        <f>IF(DisplayUnits="kW",
+(INT(U29/1000)+1)*1000,
+(INT(U29*ConvW2BTU/5000)+1)*5000)</f>
+        <v>45000</v>
       </c>
       <c r="F29" s="1">
-        <v>19900</v>
+        <f>IF(DisplayUnits="kW",
+(INT(V29/1000)+1)*1000,
+(INT(V29*ConvW2BTU/5000)+1)*5000)</f>
+        <v>65000</v>
       </c>
       <c r="G29" s="1">
-        <v>7900</v>
-      </c>
-      <c r="H29" s="1">
-        <v>10700</v>
-      </c>
-      <c r="I29" s="1">
-        <v>17200</v>
-      </c>
+        <f>IF(DisplayUnits="kW",
+(INT(W29/1000)+1)*1000,
+(INT(W29*ConvW2BTU/5000)+1)*5000)</f>
+        <v>90000</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
       <c r="J29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="O29" t="s">
+        <v>63</v>
+      </c>
+      <c r="P29" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>109</v>
+      </c>
+      <c r="R29" t="s">
+        <v>65</v>
+      </c>
+      <c r="S29">
+        <v>-31</v>
+      </c>
+      <c r="T29" s="1">
+        <v>5568</v>
+      </c>
+      <c r="U29" s="1">
+        <v>11855</v>
+      </c>
+      <c r="V29" s="1">
+        <v>18312</v>
+      </c>
+      <c r="W29" s="1">
+        <v>25957</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
         <v>68</v>
       </c>
-      <c r="B30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" t="s">
-        <v>70</v>
-      </c>
       <c r="D30" s="1">
-        <v>11000</v>
+        <f>IF(DisplayUnits="kW",
+(INT(T30/1000)+1)*1000,
+(INT(T30*ConvW2BTU/5000)+1)*5000)</f>
+        <v>30000</v>
       </c>
       <c r="E30" s="1">
-        <v>14800</v>
+        <f>IF(DisplayUnits="kW",
+(INT(U30/1000)+1)*1000,
+(INT(U30*ConvW2BTU/5000)+1)*5000)</f>
+        <v>50000</v>
       </c>
       <c r="F30" s="1">
-        <v>28300</v>
+        <f>IF(DisplayUnits="kW",
+(INT(V30/1000)+1)*1000,
+(INT(V30*ConvW2BTU/5000)+1)*5000)</f>
+        <v>75000</v>
       </c>
       <c r="G30" s="1">
-        <v>9700</v>
-      </c>
-      <c r="H30" s="1">
-        <v>13100</v>
-      </c>
-      <c r="I30" s="1">
-        <v>22900</v>
-      </c>
+        <f>IF(DisplayUnits="kW",
+(INT(W30/1000)+1)*1000,
+(INT(W30*ConvW2BTU/5000)+1)*5000)</f>
+        <v>110000</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
       <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="O30" t="s">
+        <v>66</v>
+      </c>
+      <c r="P30" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>112</v>
+      </c>
+      <c r="R30" t="s">
+        <v>68</v>
+      </c>
+      <c r="S30">
+        <v>-41</v>
+      </c>
+      <c r="T30" s="1">
+        <v>7755</v>
+      </c>
+      <c r="U30" s="1">
+        <v>13537</v>
+      </c>
+      <c r="V30" s="1">
+        <v>21618</v>
+      </c>
+      <c r="W30" s="1">
+        <v>30816</v>
+      </c>
+      <c r="X30">
         <v>1</v>
       </c>
     </row>
@@ -1933,13 +3020,13 @@
   <sheetData>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C4">
         <v>3.41</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1949,10 +3036,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:S40"/>
+  <dimension ref="C2:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1963,101 +3050,90 @@
     <col min="5" max="5" width="10.33203125" style="4" customWidth="1"/>
     <col min="6" max="6" width="9" style="4" customWidth="1"/>
     <col min="7" max="7" width="0.6640625" style="4" customWidth="1"/>
-    <col min="8" max="10" width="10" style="4" customWidth="1"/>
-    <col min="11" max="11" width="1.109375" style="4" customWidth="1"/>
-    <col min="12" max="14" width="10" style="4" customWidth="1"/>
-    <col min="15" max="15" width="0.77734375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" style="4"/>
-    <col min="17" max="17" width="1.109375" style="4" customWidth="1"/>
-    <col min="18" max="18" width="24.6640625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="28.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="4"/>
+    <col min="8" max="11" width="10" style="4" customWidth="1"/>
+    <col min="12" max="12" width="0.77734375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="4"/>
+    <col min="14" max="14" width="1.109375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="24.6640625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="28.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:19" ht="51" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="3:16" ht="51" customHeight="1" x14ac:dyDescent="0.6">
       <c r="C2" s="18" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D2" s="18"/>
     </row>
-    <row r="3" spans="3:19" ht="9.6" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="3:16" ht="9.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
     </row>
-    <row r="4" spans="3:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+    </row>
+    <row r="5" spans="3:16" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="22"/>
+      <c r="D5" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+    </row>
+    <row r="6" spans="3:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="22"/>
+      <c r="D6" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-    </row>
-    <row r="5" spans="3:19" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="23"/>
-      <c r="D5" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-    </row>
-    <row r="6" spans="3:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="23"/>
-      <c r="D6" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-    </row>
-    <row r="7" spans="3:19" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+    </row>
+    <row r="7" spans="3:16" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D7" s="19"/>
     </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C8" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="3:19" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C8" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -2065,88 +3141,76 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="K9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
       <c r="P9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-    </row>
-    <row r="10" spans="3:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C10" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="12" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11" t="s">
+      <c r="K10" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="N10" s="11"/>
+      <c r="O10" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="P10" s="11"/>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C11" s="14" t="s">
         <v>78</v>
-      </c>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="S10" s="11"/>
-    </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C11" s="14" t="s">
-        <v>82</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="M11" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="N11" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="O11" s="11"/>
+      <c r="K11" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" s="11"/>
+      <c r="M11" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" s="11"/>
+      <c r="O11" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="P11" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="S11" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C12" s="4" t="str">
         <f>HTAP_OUTPUT!A2</f>
         <v>Zone 4</v>
@@ -2159,41 +3223,33 @@
         <v>-4</v>
       </c>
       <c r="H12" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!D2,ROUND(HTAP_OUTPUT!D2/100*ConvW2BTU,0)*100)</f>
+        <f>HTAP_OUTPUT!D2</f>
         <v>5000</v>
       </c>
       <c r="I12" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!E2,ROUND(HTAP_OUTPUT!E2/100*ConvW2BTU,0)*100)</f>
-        <v>7800</v>
+        <f>HTAP_OUTPUT!E2</f>
+        <v>20000</v>
       </c>
       <c r="J12" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!F2,ROUND(HTAP_OUTPUT!F2/100*ConvW2BTU,0)*100)</f>
-        <v>12700</v>
-      </c>
-      <c r="L12" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!G2,ROUND(HTAP_OUTPUT!G2/100*ConvW2BTU,0)*100)</f>
-        <v>1900</v>
-      </c>
-      <c r="M12" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!H2,ROUND(HTAP_OUTPUT!H2/100*ConvW2BTU,0)*100)</f>
-        <v>5300</v>
-      </c>
-      <c r="N12" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!I2,ROUND(HTAP_OUTPUT!I2/100*ConvW2BTU,0)*100)</f>
-        <v>12000</v>
-      </c>
-      <c r="P12" s="4" t="str">
+        <f>HTAP_OUTPUT!F2</f>
+        <v>35000</v>
+      </c>
+      <c r="K12" s="6">
+        <f>HTAP_OUTPUT!G2</f>
+        <v>45000</v>
+      </c>
+      <c r="M12" s="4" t="str">
         <f>HTAP_OUTPUT!J2&amp;" ton"</f>
         <v>1 ton</v>
       </c>
-      <c r="R12" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="O12" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="str">
@@ -2204,42 +3260,34 @@
         <v>-7</v>
       </c>
       <c r="H13" s="7">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!D3,ROUND(HTAP_OUTPUT!D3/100*ConvW2BTU,0)*100)</f>
-        <v>5500</v>
+        <f>HTAP_OUTPUT!D3</f>
+        <v>10000</v>
       </c>
       <c r="I13" s="7">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!E3,ROUND(HTAP_OUTPUT!E3/100*ConvW2BTU,0)*100)</f>
-        <v>8700</v>
+        <f>HTAP_OUTPUT!E3</f>
+        <v>20000</v>
       </c>
       <c r="J13" s="7">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!F3,ROUND(HTAP_OUTPUT!F3/100*ConvW2BTU,0)*100)</f>
-        <v>14100</v>
-      </c>
-      <c r="L13" s="7">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!G3,ROUND(HTAP_OUTPUT!G3/100*ConvW2BTU,0)*100)</f>
-        <v>2400</v>
-      </c>
-      <c r="M13" s="7">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!H3,ROUND(HTAP_OUTPUT!H3/100*ConvW2BTU,0)*100)</f>
-        <v>6000</v>
-      </c>
-      <c r="N13" s="7">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!I3,ROUND(HTAP_OUTPUT!I3/100*ConvW2BTU,0)*100)</f>
-        <v>12800</v>
-      </c>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5" t="str">
+        <f>HTAP_OUTPUT!F3</f>
+        <v>40000</v>
+      </c>
+      <c r="K13" s="7">
+        <f>HTAP_OUTPUT!G3</f>
+        <v>50000</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5" t="str">
         <f>HTAP_OUTPUT!J3&amp;" ton"</f>
         <v>1 ton</v>
       </c>
-      <c r="R13" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="S13" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="O13" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C14" s="4" t="str">
         <f>HTAP_OUTPUT!A4</f>
         <v>Zone 5</v>
@@ -2252,41 +3300,33 @@
         <v>-7</v>
       </c>
       <c r="H14" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!D4,ROUND(HTAP_OUTPUT!D4/100*ConvW2BTU,0)*100)</f>
-        <v>5500</v>
+        <f>HTAP_OUTPUT!D4</f>
+        <v>10000</v>
       </c>
       <c r="I14" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!E4,ROUND(HTAP_OUTPUT!E4/100*ConvW2BTU,0)*100)</f>
-        <v>8700</v>
+        <f>HTAP_OUTPUT!E4</f>
+        <v>20000</v>
       </c>
       <c r="J14" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!F4,ROUND(HTAP_OUTPUT!F4/100*ConvW2BTU,0)*100)</f>
-        <v>14100</v>
-      </c>
-      <c r="L14" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!G4,ROUND(HTAP_OUTPUT!G4/100*ConvW2BTU,0)*100)</f>
-        <v>2400</v>
-      </c>
-      <c r="M14" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!H4,ROUND(HTAP_OUTPUT!H4/100*ConvW2BTU,0)*100)</f>
-        <v>6000</v>
-      </c>
-      <c r="N14" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!I4,ROUND(HTAP_OUTPUT!I4/100*ConvW2BTU,0)*100)</f>
-        <v>12800</v>
-      </c>
-      <c r="P14" s="4" t="str">
+        <f>HTAP_OUTPUT!F4</f>
+        <v>40000</v>
+      </c>
+      <c r="K14" s="6">
+        <f>HTAP_OUTPUT!G4</f>
+        <v>50000</v>
+      </c>
+      <c r="M14" s="4" t="str">
         <f>HTAP_OUTPUT!J4&amp;" ton"</f>
         <v>1.5 ton</v>
       </c>
-      <c r="R14" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="O14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.3">
       <c r="E15" s="4" t="str">
         <f>HTAP_OUTPUT!B5</f>
         <v>Borden</v>
@@ -2295,41 +3335,33 @@
         <v>-20</v>
       </c>
       <c r="H15" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!D5,ROUND(HTAP_OUTPUT!D5/100*ConvW2BTU,0)*100)</f>
-        <v>7600</v>
+        <f>HTAP_OUTPUT!D5</f>
+        <v>15000</v>
       </c>
       <c r="I15" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!E5,ROUND(HTAP_OUTPUT!E5/100*ConvW2BTU,0)*100)</f>
-        <v>11100</v>
+        <f>HTAP_OUTPUT!E5</f>
+        <v>30000</v>
       </c>
       <c r="J15" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!F5,ROUND(HTAP_OUTPUT!F5/100*ConvW2BTU,0)*100)</f>
-        <v>20200</v>
-      </c>
-      <c r="L15" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!G5,ROUND(HTAP_OUTPUT!G5/100*ConvW2BTU,0)*100)</f>
-        <v>5000</v>
-      </c>
-      <c r="M15" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!H5,ROUND(HTAP_OUTPUT!H5/100*ConvW2BTU,0)*100)</f>
-        <v>9500</v>
-      </c>
-      <c r="N15" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!I5,ROUND(HTAP_OUTPUT!I5/100*ConvW2BTU,0)*100)</f>
-        <v>20000</v>
-      </c>
-      <c r="P15" s="4" t="str">
+        <f>HTAP_OUTPUT!F5</f>
+        <v>50000</v>
+      </c>
+      <c r="K15" s="6">
+        <f>HTAP_OUTPUT!G5</f>
+        <v>75000</v>
+      </c>
+      <c r="M15" s="4" t="str">
         <f>HTAP_OUTPUT!J5&amp;" ton"</f>
         <v>1.5 ton</v>
       </c>
-      <c r="R15" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="O15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="str">
@@ -2340,42 +3372,34 @@
         <v>-20</v>
       </c>
       <c r="H16" s="7">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!D6,ROUND(HTAP_OUTPUT!D6/100*ConvW2BTU,0)*100)</f>
-        <v>7600</v>
+        <f>HTAP_OUTPUT!D6</f>
+        <v>15000</v>
       </c>
       <c r="I16" s="7">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!E6,ROUND(HTAP_OUTPUT!E6/100*ConvW2BTU,0)*100)</f>
-        <v>11100</v>
+        <f>HTAP_OUTPUT!E6</f>
+        <v>30000</v>
       </c>
       <c r="J16" s="7">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!F6,ROUND(HTAP_OUTPUT!F6/100*ConvW2BTU,0)*100)</f>
-        <v>20200</v>
-      </c>
-      <c r="L16" s="7">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!G6,ROUND(HTAP_OUTPUT!G6/100*ConvW2BTU,0)*100)</f>
-        <v>5000</v>
-      </c>
-      <c r="M16" s="7">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!H6,ROUND(HTAP_OUTPUT!H6/100*ConvW2BTU,0)*100)</f>
-        <v>9500</v>
-      </c>
-      <c r="N16" s="7">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!I6,ROUND(HTAP_OUTPUT!I6/100*ConvW2BTU,0)*100)</f>
-        <v>20000</v>
-      </c>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5" t="str">
+        <f>HTAP_OUTPUT!F6</f>
+        <v>50000</v>
+      </c>
+      <c r="K16" s="7">
+        <f>HTAP_OUTPUT!G6</f>
+        <v>75000</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5" t="str">
         <f>HTAP_OUTPUT!J6&amp;" ton"</f>
         <v>1.5 ton</v>
       </c>
-      <c r="R16" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="O16" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C17" s="4" t="str">
         <f>HTAP_OUTPUT!A7</f>
         <v>Zone 6</v>
@@ -2388,41 +3412,33 @@
         <v>-16</v>
       </c>
       <c r="H17" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!D7,ROUND(HTAP_OUTPUT!D7/100*ConvW2BTU,0)*100)</f>
-        <v>6900</v>
+        <f>HTAP_OUTPUT!D7</f>
+        <v>10000</v>
       </c>
       <c r="I17" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!E7,ROUND(HTAP_OUTPUT!E7/100*ConvW2BTU,0)*100)</f>
-        <v>10900</v>
+        <f>HTAP_OUTPUT!E7</f>
+        <v>20000</v>
       </c>
       <c r="J17" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!F7,ROUND(HTAP_OUTPUT!F7/100*ConvW2BTU,0)*100)</f>
-        <v>20000</v>
-      </c>
-      <c r="L17" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!G7,ROUND(HTAP_OUTPUT!G7/100*ConvW2BTU,0)*100)</f>
-        <v>2500</v>
-      </c>
-      <c r="M17" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!H7,ROUND(HTAP_OUTPUT!H7/100*ConvW2BTU,0)*100)</f>
-        <v>5800</v>
-      </c>
-      <c r="N17" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!I7,ROUND(HTAP_OUTPUT!I7/100*ConvW2BTU,0)*100)</f>
-        <v>10000</v>
-      </c>
-      <c r="P17" s="4" t="str">
+        <f>HTAP_OUTPUT!F7</f>
+        <v>45000</v>
+      </c>
+      <c r="K17" s="6">
+        <f>HTAP_OUTPUT!G7</f>
+        <v>65000</v>
+      </c>
+      <c r="M17" s="4" t="str">
         <f>HTAP_OUTPUT!J7&amp;" ton"</f>
         <v>1.5 ton</v>
       </c>
-      <c r="R17" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="S17" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="O17" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.3">
       <c r="E18" s="4" t="str">
         <f>HTAP_OUTPUT!B8</f>
         <v>Greenwood</v>
@@ -2431,41 +3447,33 @@
         <v>-20</v>
       </c>
       <c r="H18" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!D8,ROUND(HTAP_OUTPUT!D8/100*ConvW2BTU,0)*100)</f>
-        <v>7600</v>
+        <f>HTAP_OUTPUT!D8</f>
+        <v>15000</v>
       </c>
       <c r="I18" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!E8,ROUND(HTAP_OUTPUT!E8/100*ConvW2BTU,0)*100)</f>
-        <v>12000</v>
+        <f>HTAP_OUTPUT!E8</f>
+        <v>25000</v>
       </c>
       <c r="J18" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!F8,ROUND(HTAP_OUTPUT!F8/100*ConvW2BTU,0)*100)</f>
-        <v>22100</v>
-      </c>
-      <c r="L18" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!G8,ROUND(HTAP_OUTPUT!G8/100*ConvW2BTU,0)*100)</f>
-        <v>3400</v>
-      </c>
-      <c r="M18" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!H8,ROUND(HTAP_OUTPUT!H8/100*ConvW2BTU,0)*100)</f>
-        <v>6800</v>
-      </c>
-      <c r="N18" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!I8,ROUND(HTAP_OUTPUT!I8/100*ConvW2BTU,0)*100)</f>
-        <v>11300</v>
-      </c>
-      <c r="P18" s="4" t="str">
+        <f>HTAP_OUTPUT!F8</f>
+        <v>50000</v>
+      </c>
+      <c r="K18" s="6">
+        <f>HTAP_OUTPUT!G8</f>
+        <v>75000</v>
+      </c>
+      <c r="M18" s="4" t="str">
         <f>HTAP_OUTPUT!J8&amp;" ton"</f>
         <v>1.5 ton</v>
       </c>
-      <c r="R18" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="S18" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="O18" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.3">
       <c r="E19" s="4" t="str">
         <f>HTAP_OUTPUT!B9</f>
         <v>Kingston</v>
@@ -2474,41 +3482,33 @@
         <v>-22</v>
       </c>
       <c r="H19" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!D9,ROUND(HTAP_OUTPUT!D9/100*ConvW2BTU,0)*100)</f>
-        <v>7900</v>
+        <f>HTAP_OUTPUT!D9</f>
+        <v>15000</v>
       </c>
       <c r="I19" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!E9,ROUND(HTAP_OUTPUT!E9/100*ConvW2BTU,0)*100)</f>
-        <v>11600</v>
+        <f>HTAP_OUTPUT!E9</f>
+        <v>35000</v>
       </c>
       <c r="J19" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!F9,ROUND(HTAP_OUTPUT!F9/100*ConvW2BTU,0)*100)</f>
-        <v>21100</v>
-      </c>
-      <c r="L19" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!G9,ROUND(HTAP_OUTPUT!G9/100*ConvW2BTU,0)*100)</f>
-        <v>5400</v>
-      </c>
-      <c r="M19" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!H9,ROUND(HTAP_OUTPUT!H9/100*ConvW2BTU,0)*100)</f>
-        <v>9900</v>
-      </c>
-      <c r="N19" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!I9,ROUND(HTAP_OUTPUT!I9/100*ConvW2BTU,0)*100)</f>
-        <v>20300</v>
-      </c>
-      <c r="P19" s="4" t="str">
+        <f>HTAP_OUTPUT!F9</f>
+        <v>50000</v>
+      </c>
+      <c r="K19" s="6">
+        <f>HTAP_OUTPUT!G9</f>
+        <v>75000</v>
+      </c>
+      <c r="M19" s="4" t="str">
         <f>HTAP_OUTPUT!J9&amp;" ton"</f>
         <v>2 ton</v>
       </c>
-      <c r="R19" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="S19" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="O19" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.3">
       <c r="E20" s="4" t="str">
         <f>HTAP_OUTPUT!B10</f>
         <v>Trenton</v>
@@ -2517,41 +3517,33 @@
         <v>-22</v>
       </c>
       <c r="H20" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!D10,ROUND(HTAP_OUTPUT!D10/100*ConvW2BTU,0)*100)</f>
-        <v>7900</v>
+        <f>HTAP_OUTPUT!D10</f>
+        <v>15000</v>
       </c>
       <c r="I20" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!E10,ROUND(HTAP_OUTPUT!E10/100*ConvW2BTU,0)*100)</f>
-        <v>11600</v>
+        <f>HTAP_OUTPUT!E10</f>
+        <v>35000</v>
       </c>
       <c r="J20" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!F10,ROUND(HTAP_OUTPUT!F10/100*ConvW2BTU,0)*100)</f>
-        <v>21100</v>
-      </c>
-      <c r="L20" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!G10,ROUND(HTAP_OUTPUT!G10/100*ConvW2BTU,0)*100)</f>
-        <v>5400</v>
-      </c>
-      <c r="M20" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!H10,ROUND(HTAP_OUTPUT!H10/100*ConvW2BTU,0)*100)</f>
-        <v>9900</v>
-      </c>
-      <c r="N20" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!I10,ROUND(HTAP_OUTPUT!I10/100*ConvW2BTU,0)*100)</f>
-        <v>20300</v>
-      </c>
-      <c r="P20" s="4" t="str">
+        <f>HTAP_OUTPUT!F10</f>
+        <v>50000</v>
+      </c>
+      <c r="K20" s="6">
+        <f>HTAP_OUTPUT!G10</f>
+        <v>75000</v>
+      </c>
+      <c r="M20" s="4" t="str">
         <f>HTAP_OUTPUT!J10&amp;" ton"</f>
         <v>1.5 ton</v>
       </c>
-      <c r="R20" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="S20" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="O20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.3">
       <c r="E21" s="4" t="str">
         <f>HTAP_OUTPUT!B11</f>
         <v>Moncton</v>
@@ -2560,41 +3552,33 @@
         <v>-23</v>
       </c>
       <c r="H21" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!D11,ROUND(HTAP_OUTPUT!D11/100*ConvW2BTU,0)*100)</f>
-        <v>8100</v>
+        <f>HTAP_OUTPUT!D11</f>
+        <v>15000</v>
       </c>
       <c r="I21" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!E11,ROUND(HTAP_OUTPUT!E11/100*ConvW2BTU,0)*100)</f>
-        <v>10900</v>
+        <f>HTAP_OUTPUT!E11</f>
+        <v>25000</v>
       </c>
       <c r="J21" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!F11,ROUND(HTAP_OUTPUT!F11/100*ConvW2BTU,0)*100)</f>
-        <v>20200</v>
-      </c>
-      <c r="L21" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!G11,ROUND(HTAP_OUTPUT!G11/100*ConvW2BTU,0)*100)</f>
-        <v>4800</v>
-      </c>
-      <c r="M21" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!H11,ROUND(HTAP_OUTPUT!H11/100*ConvW2BTU,0)*100)</f>
-        <v>7600</v>
-      </c>
-      <c r="N21" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!I11,ROUND(HTAP_OUTPUT!I11/100*ConvW2BTU,0)*100)</f>
-        <v>13700</v>
-      </c>
-      <c r="P21" s="4" t="str">
+        <f>HTAP_OUTPUT!F11</f>
+        <v>45000</v>
+      </c>
+      <c r="K21" s="6">
+        <f>HTAP_OUTPUT!G11</f>
+        <v>80000</v>
+      </c>
+      <c r="M21" s="4" t="str">
         <f>HTAP_OUTPUT!J11&amp;" ton"</f>
         <v>1.5 ton</v>
       </c>
-      <c r="R21" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="S21" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="O21" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.3">
       <c r="E22" s="4" t="str">
         <f>HTAP_OUTPUT!B12</f>
         <v>Montreal</v>
@@ -2603,41 +3587,33 @@
         <v>-23</v>
       </c>
       <c r="H22" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!D12,ROUND(HTAP_OUTPUT!D12/100*ConvW2BTU,0)*100)</f>
-        <v>8100</v>
+        <f>HTAP_OUTPUT!D12</f>
+        <v>15000</v>
       </c>
       <c r="I22" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!E12,ROUND(HTAP_OUTPUT!E12/100*ConvW2BTU,0)*100)</f>
-        <v>10900</v>
+        <f>HTAP_OUTPUT!E12</f>
+        <v>30000</v>
       </c>
       <c r="J22" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!F12,ROUND(HTAP_OUTPUT!F12/100*ConvW2BTU,0)*100)</f>
-        <v>18100</v>
-      </c>
-      <c r="L22" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!G12,ROUND(HTAP_OUTPUT!G12/100*ConvW2BTU,0)*100)</f>
-        <v>6600</v>
-      </c>
-      <c r="M22" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!H12,ROUND(HTAP_OUTPUT!H12/100*ConvW2BTU,0)*100)</f>
-        <v>8800</v>
-      </c>
-      <c r="N22" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!I12,ROUND(HTAP_OUTPUT!I12/100*ConvW2BTU,0)*100)</f>
-        <v>16200</v>
-      </c>
-      <c r="P22" s="4" t="str">
+        <f>HTAP_OUTPUT!F12</f>
+        <v>45000</v>
+      </c>
+      <c r="K22" s="6">
+        <f>HTAP_OUTPUT!G12</f>
+        <v>80000</v>
+      </c>
+      <c r="M22" s="4" t="str">
         <f>HTAP_OUTPUT!J12&amp;" ton"</f>
         <v>1.5 ton</v>
       </c>
-      <c r="R22" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="S22" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="O22" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.3">
       <c r="E23" s="4" t="str">
         <f>HTAP_OUTPUT!B13</f>
         <v>Gagetown</v>
@@ -2646,41 +3622,33 @@
         <v>-24</v>
       </c>
       <c r="H23" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!D13,ROUND(HTAP_OUTPUT!D13/100*ConvW2BTU,0)*100)</f>
-        <v>8200</v>
+        <f>HTAP_OUTPUT!D13</f>
+        <v>15000</v>
       </c>
       <c r="I23" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!E13,ROUND(HTAP_OUTPUT!E13/100*ConvW2BTU,0)*100)</f>
-        <v>11100</v>
+        <f>HTAP_OUTPUT!E13</f>
+        <v>25000</v>
       </c>
       <c r="J23" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!F13,ROUND(HTAP_OUTPUT!F13/100*ConvW2BTU,0)*100)</f>
-        <v>20600</v>
-      </c>
-      <c r="L23" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!G13,ROUND(HTAP_OUTPUT!G13/100*ConvW2BTU,0)*100)</f>
-        <v>5000</v>
-      </c>
-      <c r="M23" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!H13,ROUND(HTAP_OUTPUT!H13/100*ConvW2BTU,0)*100)</f>
-        <v>7900</v>
-      </c>
-      <c r="N23" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!I13,ROUND(HTAP_OUTPUT!I13/100*ConvW2BTU,0)*100)</f>
-        <v>14000</v>
-      </c>
-      <c r="P23" s="4" t="str">
+        <f>HTAP_OUTPUT!F13</f>
+        <v>50000</v>
+      </c>
+      <c r="K23" s="6">
+        <f>HTAP_OUTPUT!G13</f>
+        <v>80000</v>
+      </c>
+      <c r="M23" s="4" t="str">
         <f>HTAP_OUTPUT!J13&amp;" ton"</f>
         <v>1.5 ton</v>
       </c>
-      <c r="R23" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="S23" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="O23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.3">
       <c r="E24" s="4" t="str">
         <f>HTAP_OUTPUT!B14</f>
         <v>Ottawa</v>
@@ -2689,41 +3657,33 @@
         <v>-25</v>
       </c>
       <c r="H24" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!D14,ROUND(HTAP_OUTPUT!D14/100*ConvW2BTU,0)*100)</f>
-        <v>8400</v>
+        <f>HTAP_OUTPUT!D14</f>
+        <v>15000</v>
       </c>
       <c r="I24" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!E14,ROUND(HTAP_OUTPUT!E14/100*ConvW2BTU,0)*100)</f>
-        <v>12300</v>
+        <f>HTAP_OUTPUT!E14</f>
+        <v>35000</v>
       </c>
       <c r="J24" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!F14,ROUND(HTAP_OUTPUT!F14/100*ConvW2BTU,0)*100)</f>
-        <v>22500</v>
-      </c>
-      <c r="L24" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!G14,ROUND(HTAP_OUTPUT!G14/100*ConvW2BTU,0)*100)</f>
-        <v>5900</v>
-      </c>
-      <c r="M24" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!H14,ROUND(HTAP_OUTPUT!H14/100*ConvW2BTU,0)*100)</f>
-        <v>10600</v>
-      </c>
-      <c r="N24" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!I14,ROUND(HTAP_OUTPUT!I14/100*ConvW2BTU,0)*100)</f>
-        <v>20900</v>
-      </c>
-      <c r="P24" s="4" t="str">
+        <f>HTAP_OUTPUT!F14</f>
+        <v>55000</v>
+      </c>
+      <c r="K24" s="6">
+        <f>HTAP_OUTPUT!G14</f>
+        <v>80000</v>
+      </c>
+      <c r="M24" s="4" t="str">
         <f>HTAP_OUTPUT!J14&amp;" ton"</f>
         <v>1.5 ton</v>
       </c>
-      <c r="R24" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="S24" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="O24" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.3">
       <c r="E25" s="4" t="str">
         <f>HTAP_OUTPUT!B15</f>
         <v>Petawawa</v>
@@ -2732,41 +3692,33 @@
         <v>-25</v>
       </c>
       <c r="H25" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!D15,ROUND(HTAP_OUTPUT!D15/100*ConvW2BTU,0)*100)</f>
-        <v>8400</v>
+        <f>HTAP_OUTPUT!D15</f>
+        <v>15000</v>
       </c>
       <c r="I25" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!E15,ROUND(HTAP_OUTPUT!E15/100*ConvW2BTU,0)*100)</f>
-        <v>12300</v>
+        <f>HTAP_OUTPUT!E15</f>
+        <v>35000</v>
       </c>
       <c r="J25" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!F15,ROUND(HTAP_OUTPUT!F15/100*ConvW2BTU,0)*100)</f>
-        <v>22500</v>
-      </c>
-      <c r="L25" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!G15,ROUND(HTAP_OUTPUT!G15/100*ConvW2BTU,0)*100)</f>
-        <v>5900</v>
-      </c>
-      <c r="M25" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!H15,ROUND(HTAP_OUTPUT!H15/100*ConvW2BTU,0)*100)</f>
-        <v>10600</v>
-      </c>
-      <c r="N25" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!I15,ROUND(HTAP_OUTPUT!I15/100*ConvW2BTU,0)*100)</f>
-        <v>20900</v>
-      </c>
-      <c r="P25" s="4" t="str">
+        <f>HTAP_OUTPUT!F15</f>
+        <v>55000</v>
+      </c>
+      <c r="K25" s="6">
+        <f>HTAP_OUTPUT!G15</f>
+        <v>80000</v>
+      </c>
+      <c r="M25" s="4" t="str">
         <f>HTAP_OUTPUT!J15&amp;" ton"</f>
         <v>1.5 ton</v>
       </c>
-      <c r="R25" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="S25" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="O25" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5" t="str">
@@ -2777,42 +3729,34 @@
         <v>-31</v>
       </c>
       <c r="H26" s="7">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!D16,ROUND(HTAP_OUTPUT!D16/100*ConvW2BTU,0)*100)</f>
-        <v>7500</v>
+        <f>HTAP_OUTPUT!D16</f>
+        <v>20000</v>
       </c>
       <c r="I26" s="7">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!E16,ROUND(HTAP_OUTPUT!E16/100*ConvW2BTU,0)*100)</f>
-        <v>13800</v>
+        <f>HTAP_OUTPUT!E16</f>
+        <v>40000</v>
       </c>
       <c r="J26" s="7">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!F16,ROUND(HTAP_OUTPUT!F16/100*ConvW2BTU,0)*100)</f>
-        <v>21800</v>
-      </c>
-      <c r="L26" s="7">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!G16,ROUND(HTAP_OUTPUT!G16/100*ConvW2BTU,0)*100)</f>
-        <v>6200</v>
-      </c>
-      <c r="M26" s="7">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!H16,ROUND(HTAP_OUTPUT!H16/100*ConvW2BTU,0)*100)</f>
-        <v>11800</v>
-      </c>
-      <c r="N26" s="7">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!I16,ROUND(HTAP_OUTPUT!I16/100*ConvW2BTU,0)*100)</f>
-        <v>18800</v>
-      </c>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5" t="str">
+        <f>HTAP_OUTPUT!F16</f>
+        <v>60000</v>
+      </c>
+      <c r="K26" s="7">
+        <f>HTAP_OUTPUT!G16</f>
+        <v>90000</v>
+      </c>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5" t="str">
         <f>HTAP_OUTPUT!J16&amp;" ton"</f>
         <v>1.5 ton</v>
       </c>
-      <c r="R26" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="S26" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="O26" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C27" s="4" t="str">
         <f>HTAP_OUTPUT!A17</f>
         <v>Zone 7a</v>
@@ -2825,41 +3769,33 @@
         <v>-18</v>
       </c>
       <c r="H27" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!D17,ROUND(HTAP_OUTPUT!D17/100*ConvW2BTU,0)*100)</f>
-        <v>6300</v>
+        <f>HTAP_OUTPUT!D17</f>
+        <v>10000</v>
       </c>
       <c r="I27" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!E17,ROUND(HTAP_OUTPUT!E17/100*ConvW2BTU,0)*100)</f>
-        <v>9800</v>
+        <f>HTAP_OUTPUT!E17</f>
+        <v>35000</v>
       </c>
       <c r="J27" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!F17,ROUND(HTAP_OUTPUT!F17/100*ConvW2BTU,0)*100)</f>
-        <v>15300</v>
-      </c>
-      <c r="L27" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!G17,ROUND(HTAP_OUTPUT!G17/100*ConvW2BTU,0)*100)</f>
-        <v>5700</v>
-      </c>
-      <c r="M27" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!H17,ROUND(HTAP_OUTPUT!H17/100*ConvW2BTU,0)*100)</f>
-        <v>7700</v>
-      </c>
-      <c r="N27" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!I17,ROUND(HTAP_OUTPUT!I17/100*ConvW2BTU,0)*100)</f>
-        <v>13600</v>
-      </c>
-      <c r="P27" s="4" t="str">
+        <f>HTAP_OUTPUT!F17</f>
+        <v>50000</v>
+      </c>
+      <c r="K27" s="6">
+        <f>HTAP_OUTPUT!G17</f>
+        <v>70000</v>
+      </c>
+      <c r="M27" s="4" t="str">
         <f>HTAP_OUTPUT!J17&amp;" ton"</f>
         <v>1.5 ton</v>
       </c>
-      <c r="R27" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="S27" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="O27" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.3">
       <c r="E28" s="4" t="str">
         <f>HTAP_OUTPUT!B18</f>
         <v>Valcartier</v>
@@ -2868,41 +3804,33 @@
         <v>-25</v>
       </c>
       <c r="H28" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!D18,ROUND(HTAP_OUTPUT!D18/100*ConvW2BTU,0)*100)</f>
-        <v>8400</v>
+        <f>HTAP_OUTPUT!D18</f>
+        <v>15000</v>
       </c>
       <c r="I28" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!E18,ROUND(HTAP_OUTPUT!E18/100*ConvW2BTU,0)*100)</f>
-        <v>11300</v>
+        <f>HTAP_OUTPUT!E18</f>
+        <v>30000</v>
       </c>
       <c r="J28" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!F18,ROUND(HTAP_OUTPUT!F18/100*ConvW2BTU,0)*100)</f>
-        <v>18800</v>
-      </c>
-      <c r="L28" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!G18,ROUND(HTAP_OUTPUT!G18/100*ConvW2BTU,0)*100)</f>
-        <v>6900</v>
-      </c>
-      <c r="M28" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!H18,ROUND(HTAP_OUTPUT!H18/100*ConvW2BTU,0)*100)</f>
-        <v>9300</v>
-      </c>
-      <c r="N28" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!I18,ROUND(HTAP_OUTPUT!I18/100*ConvW2BTU,0)*100)</f>
-        <v>16700</v>
-      </c>
-      <c r="P28" s="4" t="str">
+        <f>HTAP_OUTPUT!F18</f>
+        <v>50000</v>
+      </c>
+      <c r="K28" s="6">
+        <f>HTAP_OUTPUT!G18</f>
+        <v>80000</v>
+      </c>
+      <c r="M28" s="4" t="str">
         <f>HTAP_OUTPUT!J18&amp;" ton"</f>
         <v>1.5 ton</v>
       </c>
-      <c r="R28" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="S28" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="O28" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.3">
       <c r="E29" s="4" t="str">
         <f>HTAP_OUTPUT!B19</f>
         <v>North Bay</v>
@@ -2911,41 +3839,33 @@
         <v>-28</v>
       </c>
       <c r="H29" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!D19,ROUND(HTAP_OUTPUT!D19/100*ConvW2BTU,0)*100)</f>
-        <v>8900</v>
+        <f>HTAP_OUTPUT!D19</f>
+        <v>20000</v>
       </c>
       <c r="I29" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!E19,ROUND(HTAP_OUTPUT!E19/100*ConvW2BTU,0)*100)</f>
-        <v>13000</v>
+        <f>HTAP_OUTPUT!E19</f>
+        <v>35000</v>
       </c>
       <c r="J29" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!F19,ROUND(HTAP_OUTPUT!F19/100*ConvW2BTU,0)*100)</f>
-        <v>24000</v>
-      </c>
-      <c r="L29" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!G19,ROUND(HTAP_OUTPUT!G19/100*ConvW2BTU,0)*100)</f>
-        <v>6500</v>
-      </c>
-      <c r="M29" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!H19,ROUND(HTAP_OUTPUT!H19/100*ConvW2BTU,0)*100)</f>
-        <v>11200</v>
-      </c>
-      <c r="N29" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!I19,ROUND(HTAP_OUTPUT!I19/100*ConvW2BTU,0)*100)</f>
-        <v>21500</v>
-      </c>
-      <c r="P29" s="4" t="str">
+        <f>HTAP_OUTPUT!F19</f>
+        <v>55000</v>
+      </c>
+      <c r="K29" s="6">
+        <f>HTAP_OUTPUT!G19</f>
+        <v>85000</v>
+      </c>
+      <c r="M29" s="4" t="str">
         <f>HTAP_OUTPUT!J19&amp;" ton"</f>
         <v>1 ton</v>
       </c>
-      <c r="R29" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="S29" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="O29" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.3">
       <c r="E30" s="4" t="str">
         <f>HTAP_OUTPUT!B20</f>
         <v>Edmonton</v>
@@ -2954,41 +3874,33 @@
         <v>-30</v>
       </c>
       <c r="H30" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!D20,ROUND(HTAP_OUTPUT!D20/100*ConvW2BTU,0)*100)</f>
-        <v>7400</v>
+        <f>HTAP_OUTPUT!D20</f>
+        <v>20000</v>
       </c>
       <c r="I30" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!E20,ROUND(HTAP_OUTPUT!E20/100*ConvW2BTU,0)*100)</f>
-        <v>13600</v>
+        <f>HTAP_OUTPUT!E20</f>
+        <v>40000</v>
       </c>
       <c r="J30" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!F20,ROUND(HTAP_OUTPUT!F20/100*ConvW2BTU,0)*100)</f>
-        <v>21400</v>
-      </c>
-      <c r="L30" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!G20,ROUND(HTAP_OUTPUT!G20/100*ConvW2BTU,0)*100)</f>
-        <v>6000</v>
-      </c>
-      <c r="M30" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!H20,ROUND(HTAP_OUTPUT!H20/100*ConvW2BTU,0)*100)</f>
-        <v>11600</v>
-      </c>
-      <c r="N30" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!I20,ROUND(HTAP_OUTPUT!I20/100*ConvW2BTU,0)*100)</f>
-        <v>18600</v>
-      </c>
-      <c r="P30" s="4" t="str">
+        <f>HTAP_OUTPUT!F20</f>
+        <v>60000</v>
+      </c>
+      <c r="K30" s="6">
+        <f>HTAP_OUTPUT!G20</f>
+        <v>90000</v>
+      </c>
+      <c r="M30" s="4" t="str">
         <f>HTAP_OUTPUT!J20&amp;" ton"</f>
         <v>1 ton</v>
       </c>
-      <c r="R30" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="S30" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="O30" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.3">
       <c r="E31" s="4" t="str">
         <f>HTAP_OUTPUT!B21</f>
         <v>Wainwright</v>
@@ -2997,41 +3909,33 @@
         <v>-30</v>
       </c>
       <c r="H31" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!D21,ROUND(HTAP_OUTPUT!D21/100*ConvW2BTU,0)*100)</f>
-        <v>7400</v>
+        <f>HTAP_OUTPUT!D21</f>
+        <v>20000</v>
       </c>
       <c r="I31" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!E21,ROUND(HTAP_OUTPUT!E21/100*ConvW2BTU,0)*100)</f>
-        <v>13600</v>
+        <f>HTAP_OUTPUT!E21</f>
+        <v>40000</v>
       </c>
       <c r="J31" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!F21,ROUND(HTAP_OUTPUT!F21/100*ConvW2BTU,0)*100)</f>
-        <v>21400</v>
-      </c>
-      <c r="L31" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!G21,ROUND(HTAP_OUTPUT!G21/100*ConvW2BTU,0)*100)</f>
-        <v>6000</v>
-      </c>
-      <c r="M31" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!H21,ROUND(HTAP_OUTPUT!H21/100*ConvW2BTU,0)*100)</f>
-        <v>11600</v>
-      </c>
-      <c r="N31" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!I21,ROUND(HTAP_OUTPUT!I21/100*ConvW2BTU,0)*100)</f>
-        <v>18600</v>
-      </c>
-      <c r="P31" s="4" t="str">
+        <f>HTAP_OUTPUT!F21</f>
+        <v>60000</v>
+      </c>
+      <c r="K31" s="6">
+        <f>HTAP_OUTPUT!G21</f>
+        <v>90000</v>
+      </c>
+      <c r="M31" s="4" t="str">
         <f>HTAP_OUTPUT!J21&amp;" ton"</f>
         <v>1.5 ton</v>
       </c>
-      <c r="R31" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="S31" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="O31" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.3">
       <c r="E32" s="4" t="str">
         <f>HTAP_OUTPUT!B22</f>
         <v>Bagotville</v>
@@ -3040,41 +3944,33 @@
         <v>-31</v>
       </c>
       <c r="H32" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!D22,ROUND(HTAP_OUTPUT!D22/100*ConvW2BTU,0)*100)</f>
-        <v>9400</v>
+        <f>HTAP_OUTPUT!D22</f>
+        <v>20000</v>
       </c>
       <c r="I32" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!E22,ROUND(HTAP_OUTPUT!E22/100*ConvW2BTU,0)*100)</f>
-        <v>12600</v>
+        <f>HTAP_OUTPUT!E22</f>
+        <v>35000</v>
       </c>
       <c r="J32" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!F22,ROUND(HTAP_OUTPUT!F22/100*ConvW2BTU,0)*100)</f>
-        <v>21100</v>
-      </c>
-      <c r="L32" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!G22,ROUND(HTAP_OUTPUT!G22/100*ConvW2BTU,0)*100)</f>
-        <v>7900</v>
-      </c>
-      <c r="M32" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!H22,ROUND(HTAP_OUTPUT!H22/100*ConvW2BTU,0)*100)</f>
-        <v>10700</v>
-      </c>
-      <c r="N32" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!I22,ROUND(HTAP_OUTPUT!I22/100*ConvW2BTU,0)*100)</f>
-        <v>18200</v>
-      </c>
-      <c r="P32" s="4" t="str">
+        <f>HTAP_OUTPUT!F22</f>
+        <v>55000</v>
+      </c>
+      <c r="K32" s="6">
+        <f>HTAP_OUTPUT!G22</f>
+        <v>90000</v>
+      </c>
+      <c r="M32" s="4" t="str">
         <f>HTAP_OUTPUT!J22&amp;" ton"</f>
         <v>1.5 ton</v>
       </c>
-      <c r="R32" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="S32" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="O32" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.3">
       <c r="E33" s="4" t="str">
         <f>HTAP_OUTPUT!B23</f>
         <v>Moose Jaw</v>
@@ -3083,41 +3979,33 @@
         <v>-32</v>
       </c>
       <c r="H33" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!D23,ROUND(HTAP_OUTPUT!D23/100*ConvW2BTU,0)*100)</f>
-        <v>9500</v>
+        <f>HTAP_OUTPUT!D23</f>
+        <v>20000</v>
       </c>
       <c r="I33" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!E23,ROUND(HTAP_OUTPUT!E23/100*ConvW2BTU,0)*100)</f>
-        <v>12900</v>
+        <f>HTAP_OUTPUT!E23</f>
+        <v>35000</v>
       </c>
       <c r="J33" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!F23,ROUND(HTAP_OUTPUT!F23/100*ConvW2BTU,0)*100)</f>
-        <v>24300</v>
-      </c>
-      <c r="L33" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!G23,ROUND(HTAP_OUTPUT!G23/100*ConvW2BTU,0)*100)</f>
-        <v>8100</v>
-      </c>
-      <c r="M33" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!H23,ROUND(HTAP_OUTPUT!H23/100*ConvW2BTU,0)*100)</f>
-        <v>11000</v>
-      </c>
-      <c r="N33" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!I23,ROUND(HTAP_OUTPUT!I23/100*ConvW2BTU,0)*100)</f>
-        <v>21000</v>
-      </c>
-      <c r="P33" s="4" t="str">
+        <f>HTAP_OUTPUT!F23</f>
+        <v>55000</v>
+      </c>
+      <c r="K33" s="6">
+        <f>HTAP_OUTPUT!G23</f>
+        <v>95000</v>
+      </c>
+      <c r="M33" s="4" t="str">
         <f>HTAP_OUTPUT!J23&amp;" ton"</f>
         <v>1.5 ton</v>
       </c>
-      <c r="R33" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="S33" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="O33" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="3:16" x14ac:dyDescent="0.3">
       <c r="E34" s="4" t="str">
         <f>HTAP_OUTPUT!B24</f>
         <v>Shilo</v>
@@ -3126,41 +4014,33 @@
         <v>-33</v>
       </c>
       <c r="H34" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!D24,ROUND(HTAP_OUTPUT!D24/100*ConvW2BTU,0)*100)</f>
-        <v>7100</v>
+        <f>HTAP_OUTPUT!D24</f>
+        <v>25000</v>
       </c>
       <c r="I34" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!E24,ROUND(HTAP_OUTPUT!E24/100*ConvW2BTU,0)*100)</f>
-        <v>14200</v>
+        <f>HTAP_OUTPUT!E24</f>
+        <v>40000</v>
       </c>
       <c r="J34" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!F24,ROUND(HTAP_OUTPUT!F24/100*ConvW2BTU,0)*100)</f>
-        <v>22000</v>
-      </c>
-      <c r="L34" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!G24,ROUND(HTAP_OUTPUT!G24/100*ConvW2BTU,0)*100)</f>
-        <v>6100</v>
-      </c>
-      <c r="M34" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!H24,ROUND(HTAP_OUTPUT!H24/100*ConvW2BTU,0)*100)</f>
-        <v>12200</v>
-      </c>
-      <c r="N34" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!I24,ROUND(HTAP_OUTPUT!I24/100*ConvW2BTU,0)*100)</f>
-        <v>18800</v>
-      </c>
-      <c r="P34" s="4" t="str">
+        <f>HTAP_OUTPUT!F24</f>
+        <v>60000</v>
+      </c>
+      <c r="K34" s="6">
+        <f>HTAP_OUTPUT!G24</f>
+        <v>95000</v>
+      </c>
+      <c r="M34" s="4" t="str">
         <f>HTAP_OUTPUT!J24&amp;" ton"</f>
         <v>1.5 ton</v>
       </c>
-      <c r="R34" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="S34" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="O34" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.3">
       <c r="E35" s="4" t="str">
         <f>HTAP_OUTPUT!B25</f>
         <v>Winnipeg</v>
@@ -3169,41 +4049,33 @@
         <v>-33</v>
       </c>
       <c r="H35" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!D25,ROUND(HTAP_OUTPUT!D25/100*ConvW2BTU,0)*100)</f>
-        <v>7100</v>
+        <f>HTAP_OUTPUT!D25</f>
+        <v>25000</v>
       </c>
       <c r="I35" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!E25,ROUND(HTAP_OUTPUT!E25/100*ConvW2BTU,0)*100)</f>
-        <v>14200</v>
+        <f>HTAP_OUTPUT!E25</f>
+        <v>40000</v>
       </c>
       <c r="J35" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!F25,ROUND(HTAP_OUTPUT!F25/100*ConvW2BTU,0)*100)</f>
-        <v>22000</v>
-      </c>
-      <c r="L35" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!G25,ROUND(HTAP_OUTPUT!G25/100*ConvW2BTU,0)*100)</f>
-        <v>6100</v>
-      </c>
-      <c r="M35" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!H25,ROUND(HTAP_OUTPUT!H25/100*ConvW2BTU,0)*100)</f>
-        <v>12200</v>
-      </c>
-      <c r="N35" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!I25,ROUND(HTAP_OUTPUT!I25/100*ConvW2BTU,0)*100)</f>
-        <v>18800</v>
-      </c>
-      <c r="P35" s="4" t="str">
+        <f>HTAP_OUTPUT!F25</f>
+        <v>60000</v>
+      </c>
+      <c r="K35" s="6">
+        <f>HTAP_OUTPUT!G25</f>
+        <v>95000</v>
+      </c>
+      <c r="M35" s="4" t="str">
         <f>HTAP_OUTPUT!J25&amp;" ton"</f>
         <v>1.5 ton</v>
       </c>
-      <c r="R35" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="S35" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="O35" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16" x14ac:dyDescent="0.3">
       <c r="E36" s="4" t="str">
         <f>HTAP_OUTPUT!B26</f>
         <v>Schumacher</v>
@@ -3212,41 +4084,33 @@
         <v>-34</v>
       </c>
       <c r="H36" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!D26,ROUND(HTAP_OUTPUT!D26/100*ConvW2BTU,0)*100)</f>
-        <v>9800</v>
+        <f>HTAP_OUTPUT!D26</f>
+        <v>25000</v>
       </c>
       <c r="I36" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!E26,ROUND(HTAP_OUTPUT!E26/100*ConvW2BTU,0)*100)</f>
-        <v>14500</v>
+        <f>HTAP_OUTPUT!E26</f>
+        <v>40000</v>
       </c>
       <c r="J36" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!F26,ROUND(HTAP_OUTPUT!F26/100*ConvW2BTU,0)*100)</f>
-        <v>26800</v>
-      </c>
-      <c r="L36" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!G26,ROUND(HTAP_OUTPUT!G26/100*ConvW2BTU,0)*100)</f>
-        <v>7700</v>
-      </c>
-      <c r="M36" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!H26,ROUND(HTAP_OUTPUT!H26/100*ConvW2BTU,0)*100)</f>
-        <v>12500</v>
-      </c>
-      <c r="N36" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!I26,ROUND(HTAP_OUTPUT!I26/100*ConvW2BTU,0)*100)</f>
-        <v>22600</v>
-      </c>
-      <c r="P36" s="4" t="str">
+        <f>HTAP_OUTPUT!F26</f>
+        <v>60000</v>
+      </c>
+      <c r="K36" s="6">
+        <f>HTAP_OUTPUT!G26</f>
+        <v>95000</v>
+      </c>
+      <c r="M36" s="4" t="str">
         <f>HTAP_OUTPUT!J26&amp;" ton"</f>
         <v>1 ton</v>
       </c>
-      <c r="R36" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="S36" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="O36" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="3:16" x14ac:dyDescent="0.3">
       <c r="E37" s="4" t="str">
         <f>HTAP_OUTPUT!B27</f>
         <v>Cold Lake</v>
@@ -3255,41 +4119,33 @@
         <v>-35</v>
       </c>
       <c r="H37" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!D27,ROUND(HTAP_OUTPUT!D27/100*ConvW2BTU,0)*100)</f>
-        <v>8000</v>
+        <f>HTAP_OUTPUT!D27</f>
+        <v>25000</v>
       </c>
       <c r="I37" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!E27,ROUND(HTAP_OUTPUT!E27/100*ConvW2BTU,0)*100)</f>
-        <v>14800</v>
+        <f>HTAP_OUTPUT!E27</f>
+        <v>40000</v>
       </c>
       <c r="J37" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!F27,ROUND(HTAP_OUTPUT!F27/100*ConvW2BTU,0)*100)</f>
-        <v>23400</v>
-      </c>
-      <c r="L37" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!G27,ROUND(HTAP_OUTPUT!G27/100*ConvW2BTU,0)*100)</f>
-        <v>7000</v>
-      </c>
-      <c r="M37" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!H27,ROUND(HTAP_OUTPUT!H27/100*ConvW2BTU,0)*100)</f>
-        <v>12700</v>
-      </c>
-      <c r="N37" s="6">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!I27,ROUND(HTAP_OUTPUT!I27/100*ConvW2BTU,0)*100)</f>
-        <v>19800</v>
-      </c>
-      <c r="P37" s="4" t="str">
+        <f>HTAP_OUTPUT!F27</f>
+        <v>65000</v>
+      </c>
+      <c r="K37" s="6">
+        <f>HTAP_OUTPUT!G27</f>
+        <v>100000</v>
+      </c>
+      <c r="M37" s="4" t="str">
         <f>HTAP_OUTPUT!J27&amp;" ton"</f>
         <v>1.5 ton</v>
       </c>
-      <c r="R37" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="S37" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="O37" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5" t="str">
@@ -3300,42 +4156,34 @@
         <v>-35</v>
       </c>
       <c r="H38" s="7">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!D28,ROUND(HTAP_OUTPUT!D28/100*ConvW2BTU,0)*100)</f>
-        <v>10000</v>
+        <f>HTAP_OUTPUT!D28</f>
+        <v>25000</v>
       </c>
       <c r="I38" s="7">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!E28,ROUND(HTAP_OUTPUT!E28/100*ConvW2BTU,0)*100)</f>
-        <v>13500</v>
+        <f>HTAP_OUTPUT!E28</f>
+        <v>40000</v>
       </c>
       <c r="J38" s="7">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!F28,ROUND(HTAP_OUTPUT!F28/100*ConvW2BTU,0)*100)</f>
-        <v>25700</v>
-      </c>
-      <c r="L38" s="7">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!G28,ROUND(HTAP_OUTPUT!G28/100*ConvW2BTU,0)*100)</f>
-        <v>8600</v>
-      </c>
-      <c r="M38" s="7">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!H28,ROUND(HTAP_OUTPUT!H28/100*ConvW2BTU,0)*100)</f>
-        <v>11700</v>
-      </c>
-      <c r="N38" s="7">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!I28,ROUND(HTAP_OUTPUT!I28/100*ConvW2BTU,0)*100)</f>
-        <v>21700</v>
-      </c>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5" t="str">
+        <f>HTAP_OUTPUT!F28</f>
+        <v>60000</v>
+      </c>
+      <c r="K38" s="7">
+        <f>HTAP_OUTPUT!G28</f>
+        <v>100000</v>
+      </c>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5" t="str">
         <f>HTAP_OUTPUT!J28&amp;" ton"</f>
         <v>1.5 ton</v>
       </c>
-      <c r="R38" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="S38" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="O38" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C39" s="8" t="str">
         <f>HTAP_OUTPUT!A29</f>
         <v>Zone 7b</v>
@@ -3349,42 +4197,34 @@
         <v>-31</v>
       </c>
       <c r="H39" s="9">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!D29,ROUND(HTAP_OUTPUT!D29/100*ConvW2BTU,0)*100)</f>
-        <v>8000</v>
+        <f>HTAP_OUTPUT!D29</f>
+        <v>20000</v>
       </c>
       <c r="I39" s="9">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!E29,ROUND(HTAP_OUTPUT!E29/100*ConvW2BTU,0)*100)</f>
-        <v>12600</v>
+        <f>HTAP_OUTPUT!E29</f>
+        <v>45000</v>
       </c>
       <c r="J39" s="9">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!F29,ROUND(HTAP_OUTPUT!F29/100*ConvW2BTU,0)*100)</f>
-        <v>19900</v>
-      </c>
-      <c r="L39" s="9">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!G29,ROUND(HTAP_OUTPUT!G29/100*ConvW2BTU,0)*100)</f>
-        <v>7900</v>
-      </c>
-      <c r="M39" s="9">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!H29,ROUND(HTAP_OUTPUT!H29/100*ConvW2BTU,0)*100)</f>
-        <v>10700</v>
-      </c>
-      <c r="N39" s="9">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!I29,ROUND(HTAP_OUTPUT!I29/100*ConvW2BTU,0)*100)</f>
-        <v>17200</v>
-      </c>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8" t="str">
+        <f>HTAP_OUTPUT!F29</f>
+        <v>65000</v>
+      </c>
+      <c r="K39" s="9">
+        <f>HTAP_OUTPUT!G29</f>
+        <v>90000</v>
+      </c>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8" t="str">
         <f>HTAP_OUTPUT!J29&amp;" ton"</f>
         <v>1 ton</v>
       </c>
-      <c r="R39" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="S39" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="O39" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="P39" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C40" s="5" t="str">
         <f>HTAP_OUTPUT!A30</f>
         <v>Zone 8</v>
@@ -3398,50 +4238,40 @@
         <v>-41</v>
       </c>
       <c r="H40" s="7">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!D30,ROUND(HTAP_OUTPUT!D30/100*ConvW2BTU,0)*100)</f>
-        <v>11000</v>
+        <f>HTAP_OUTPUT!D30</f>
+        <v>30000</v>
       </c>
       <c r="I40" s="7">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!E30,ROUND(HTAP_OUTPUT!E30/100*ConvW2BTU,0)*100)</f>
-        <v>14800</v>
+        <f>HTAP_OUTPUT!E30</f>
+        <v>50000</v>
       </c>
       <c r="J40" s="7">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!F30,ROUND(HTAP_OUTPUT!F30/100*ConvW2BTU,0)*100)</f>
-        <v>28300</v>
-      </c>
-      <c r="L40" s="7">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!G30,ROUND(HTAP_OUTPUT!G30/100*ConvW2BTU,0)*100)</f>
-        <v>9700</v>
-      </c>
-      <c r="M40" s="7">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!H30,ROUND(HTAP_OUTPUT!H30/100*ConvW2BTU,0)*100)</f>
-        <v>13100</v>
-      </c>
-      <c r="N40" s="7">
-        <f>IF(DisplayUnits="kW",HTAP_OUTPUT!I30,ROUND(HTAP_OUTPUT!I30/100*ConvW2BTU,0)*100)</f>
-        <v>22900</v>
-      </c>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5" t="str">
+        <f>HTAP_OUTPUT!F30</f>
+        <v>75000</v>
+      </c>
+      <c r="K40" s="7">
+        <f>HTAP_OUTPUT!G30</f>
+        <v>110000</v>
+      </c>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5" t="str">
         <f>HTAP_OUTPUT!J30&amp;" ton"</f>
         <v>1 ton</v>
       </c>
-      <c r="R40" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="S40" s="5" t="s">
+      <c r="O40" s="5" t="s">
         <v>92</v>
       </c>
+      <c r="P40" s="5" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="E4:P4"/>
-    <mergeCell ref="E5:P5"/>
-    <mergeCell ref="E6:P6"/>
+  <mergeCells count="3">
+    <mergeCell ref="E4:M4"/>
+    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="E6:M6"/>
   </mergeCells>
-  <conditionalFormatting sqref="R12:S40">
+  <conditionalFormatting sqref="O12:P40">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"Oil or Propane Furnace"</formula>
     </cfRule>
@@ -3467,7 +4297,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="5" operator="containsText" id="{0BD19A2F-F55F-4986-B711-E34EE70A4AF7}">
-            <xm:f>NOT(ISERROR(SEARCH("Heat Pump",R12)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH("Heat Pump",O12)))</xm:f>
             <xm:f>"Heat Pump"</xm:f>
             <x14:dxf>
               <font>
@@ -3482,7 +4312,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>R12:S40</xm:sqref>
+          <xm:sqref>O12:P40</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
